--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'투기(dumping)' = 投棄?</t>
+          <t>'화폐(currency)' = 話幣?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 勢金?</t>
+          <t>'통제(control)' = 通制?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'시선(vision)' = 視線?</t>
+          <t>'초유(first)' = 初有?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>初有</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>'간여' = 看與?</t>
+          <t>'상감(inlaid)' = 象嵌?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>象嵌</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'야박(scorpion)' = 野薄?</t>
+          <t>'경제(economy)' = 經濟?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 遺利?</t>
+          <t>'참가(join)' = 參加?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>參加</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'초유(first)' = 初有?</t>
+          <t>'통화(currency)' = 統貨?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>通貨</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 遺産?</t>
+          <t>'유교(conf)' = 有敎?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'견습(appraise)' = 見習?</t>
+          <t>'구조(structure)' = 構造?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'혈세' = 血洗?</t>
+          <t>'알현(audience)' = 謁見?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -658,7 +658,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 補板?</t>
+          <t>'그병(give)' = 給與?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>給與</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'근성(guts)' = 根性?</t>
+          <t>'격언(motto)' = 格言?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>根性</t>
+          <t>格言</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 稅金?</t>
+          <t>'직경(diameter)' = 直徑?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>直徑</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'참견(see)' = 參見?</t>
+          <t>'혈세' = 血洗?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>血洗</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>'한자' = 漢字?</t>
+          <t>'유기(abandon)' = 有棄?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'근절(eradication)' = 根絶?</t>
+          <t>'언약(appointment)' = 言約?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>言約</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,7 +778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 象嵌?</t>
+          <t>'회피(avoidance)' = 回避?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>象嵌</t>
+          <t>回避</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>'세력(power)' = 勢力?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>童話</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'직경(diameter)' = 直徑?</t>
+          <t>'화해(reconciliation)' = 和解?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'간여' = 干與?</t>
+          <t>'보고(report)' = 報告?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,7 +858,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 儒利?</t>
+          <t>'도피(escape)' = 挑避?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -878,7 +878,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 基盤?</t>
+          <t>'입원(hospitalization)' = 入院?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>入院</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -898,7 +898,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'전선(front)' = 戰線?</t>
+          <t>'괴한(blame)' = 怪漢?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>怪漢</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -918,7 +918,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'참석' = 參席?</t>
+          <t>'곡절(tortuous)' = 曲折?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>曲折</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 受容?</t>
+          <t>'유감(pity)' = 儒憾?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -958,7 +958,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>'간섭' = 看涉?</t>
+          <t>'구조(structure)' = 具造?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>'간만(full)' = 看滿?</t>
+          <t>'유기(abandon)' = 儒棄?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 具現?</t>
+          <t>'보판(supplement)' = 報板?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1018,7 +1018,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>'훼손(damage)' = 毁損?</t>
+          <t>'귀천(expensive)' = 貴賤?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>貴賤</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 遺失?</t>
+          <t>'간만(full)' = 干滿?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 看護?</t>
+          <t>'맹방(allies)' = 盟邦?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>盟邦</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>'포기(abandon)' = 抛棄?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 有棄?</t>
+          <t>'참석' = 參席?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>參席</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,7 +1118,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 和合?</t>
+          <t>'도피(escape)' = 逃避?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1138,7 +1138,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>'견문(knowledge)' = 見聞?</t>
+          <t>'발각(find)' = 發覺?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>發覺</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>'경로(passage)' = 經路?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>通話</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>'곡절(tortuous)' = 曲折?</t>
+          <t>'교양(cure)' = 敎養?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>敎養</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 端緖?</t>
+          <t>'세무(tax)' = 勢務?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>'한문(chinese)' = 漢文?</t>
+          <t>'화두(words)' = 貨頭?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>'학문(knowledge)' = 學問?</t>
+          <t>'화목(harmony)' = 貨睦?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 敎養?</t>
+          <t>'유산(heritage)' = 儒産?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 和睦?</t>
+          <t>'도발' = 逃發?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 有産?</t>
+          <t>'현실(reality)' = 現實?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>現實</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'경위' = 經緯?</t>
+          <t>'화물(goods)' = 話物?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1338,7 +1338,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>'보고(report)' = 報告?</t>
+          <t>'묵살(kill)' = 默殺?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>默殺</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>'강도(strength)' = 強度?</t>
+          <t>'정치(politics)' = 政治?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>政治</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 儒産?</t>
+          <t>'간섭' = 干涉?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1398,17 +1398,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>'내과' = 內科?</t>
+          <t>'단정(determine)' = 端定?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>斷定</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1418,7 +1418,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'귀천(expensive)' = 貴賤?</t>
+          <t>'정파' = 政派?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>政派</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1438,7 +1438,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 報板?</t>
+          <t>'간만(full)' = 看滿?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>'보고(report)' = 補告?</t>
+          <t>'간척(reclamation)' = 干拓?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1478,7 +1478,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'노선(route)' = 路線?</t>
+          <t>'정직(honest)' = 正直?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>'매목' = 埋木?</t>
+          <t>'조작(construction)' = 造作?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>造作</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1518,7 +1518,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 儒棄?</t>
+          <t>'선택(choose)' = 善擇?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>選擇</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>'참가(join)' = 參加?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 儒失?</t>
+          <t>'침묵(silence)' = 沈默?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>沈默</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1578,17 +1578,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>'현실(reality)' = 現實?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 有利?</t>
+          <t>'보고(report)' = 補告?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1618,7 +1618,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>'입원(hospitalization)' = 入院?</t>
+          <t>'화물(goods)' = 貨物?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1638,17 +1638,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>'통제(control)' = 統制?</t>
+          <t>'동맹(alliance)' = 童盟?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1658,7 +1658,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>'채용(use)' = 採用?</t>
+          <t>'세력(power)' = 勢力?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>採用</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1678,27 +1678,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 儒敎?</t>
+          <t>'간섭' = 看涉?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>'투수(pitcher)' = 投手?</t>
+          <t>'유언(will)' = 遺言?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1718,17 +1718,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 看拓?</t>
+          <t>'간여' = 干與?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1738,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 和解?</t>
+          <t>'투수(pitcher)' = 投手?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>投手</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1758,17 +1758,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 有敎?</t>
+          <t>'포기(abandon)' = 抛棄?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>抛棄</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1778,7 +1778,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 遺棄?</t>
+          <t>'공동(common)' = 共同?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>共同</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1798,17 +1798,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 干護?</t>
+          <t>'유교(conf)' = 儒敎?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 干拓?</t>
+          <t>'전선(front)' = 戰線?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>戰線</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1838,17 +1838,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>'유언(will)' = 儒言?</t>
+          <t>'채용(use)' = 採用?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>採用</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>'권세(power)' = 權勢?</t>
+          <t>'공감(sympathy)' = 共感?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1878,7 +1878,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>'간만(full)' = 干滿?</t>
+          <t>'사건(event)' = 事件?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>事件</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>'귀중(you)' = 貴中?</t>
+          <t>'유감(pity)' = 遺憾?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>'투고(posting)' = 投稿?</t>
+          <t>'보판(supplement)' = 補板?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1938,7 +1938,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>'이론(theory)' = 理論?</t>
+          <t>'창제(creation)' = 創製?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>創製</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 稅務?</t>
+          <t>'비탄(grief)' = 悲嘆?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>悲嘆</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>'참여(participate)' = 參與?</t>
+          <t>'화두(words)' = 和頭?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1998,7 +1998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'활력(vitality)' = 活力?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>活力</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2018,17 +2018,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 勢務?</t>
+          <t>'귀중(you)' = 貴中?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>貴中</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
+          <t>'투기(dumping)' = 投棄?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>投棄</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 有失?</t>
+          <t>'유리(favorable)' = 儒利?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2068,17 +2068,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 若干?</t>
+          <t>'통제(control)' = 統制?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2098,17 +2098,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'비탄(grief)' = 悲嘆?</t>
+          <t>'화제(topic)' = 貨題?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2118,17 +2118,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>'알현(audience)' = 謁見?</t>
+          <t>'공감(sympathy)' = 公感?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2138,7 +2138,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>'창제(creation)' = 創製?</t>
+          <t>'지배(rule)' = 支配?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>支配</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 和音?</t>
+          <t>'기반(basis)' = 基盤?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>基盤</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2178,17 +2178,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 序幕?</t>
+          <t>'정부(government)' = 正府?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>政府</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2198,17 +2198,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 遺敎?</t>
+          <t>'경로(passage)' = 經路?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>經路</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>'세력(power)' = 稅力?</t>
+          <t>'정의(justice)' = 政義?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2228,17 +2228,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>正義</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'괴한(blame)' = 怪漢?</t>
+          <t>'선수(player)' = 選手?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>選手</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2258,27 +2258,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'정직(honest)' = 政直?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>'견해(opinion)' = 見解?</t>
+          <t>'동맹(alliance)' = 同盟?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'경제(economy)' = 經濟?</t>
+          <t>'선거(election)' = 選擧?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>選擧</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2318,7 +2318,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>'유언(will)' = 遺言?</t>
+          <t>'묵념(silent)' = 默念?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>默念</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2338,20 +2338,2180 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>'화해(reconciliation)' = 話解?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>和解</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>'근성(guts)' = 根性?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>'화음(chord)' = 和音?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>和音</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>'견습(appraise)' = 見習?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>見習</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>'약간(slightly)' = 若干?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>若干</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>'간척(reclamation)' = 看拓?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>干拓</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>'유실(lose)' = 有失?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>遺失</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>'유실(lose)' = 遺失?</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>遺失</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>'도발' = 挑發?</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>挑發</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>'도전(challenge)' = 逃戰?</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>挑戰</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>'언론(remark)' = 言論?</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>言論</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>'세금(tax)' = 勢金?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>稅金</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>'견해(opinion)' = 見解?</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>見解</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>'지지(support)' = 支持?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>'권세(power)' = 權勢?</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>權勢</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>'단서(ductive)' = 端緖?</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>'참여(participate)' = 參與?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>參與</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>'도주(escape)' = 挑走?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>逃走</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>'서언(oath)' = 序言?</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>誓言</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>'한자' = 漢字?</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>漢字</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>'화폐(currency)' = 貨幣?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>'남용(abuse)' = 濫用?</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>'대화(dialogue)' = 對話?</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>對話</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>'유산(heritage)' = 有産?</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>遺産</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>'화물(goods)' = 和物?</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>貨物</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>'수용(acceptance)' = 受容?</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>'정부(government)' = 政府?</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>政府</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>'간호(nurse)' = 看護?</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>'서막(prelude)' = 序幕?</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>'공공(public)' = 公共?</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>公共</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>捷徑</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>'화두(words)' = 話頭?</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>話頭</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>'공공(public)' = 共共?</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>公共</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>'유기(abandon)' = 遺棄?</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>'학문(knowledge)' = 學問?</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>學問</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>'견문(knowledge)' = 見聞?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>見聞</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>'유실(lose)' = 儒失?</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>遺失</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 誓約?</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>'망조(omen)' = 亡兆?</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>亡兆</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>'화합(harmony)' = 和合?</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>和合</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>'세력(power)' = 稅力?</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>勢力</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>'근절(eradication)' = 根絶?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>根絶</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>'화목(harmony)' = 話睦?</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>'이론(theory)' = 理論?</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>理論</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>'통화(currency)' = 通貨?</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>通貨</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>'동화' = 童話?</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>童話</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>'경위' = 經緯?</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>經緯</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>'규정(regulation)' = 規定?</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>'강도(strength)' = 強度?</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>強度</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>'부활(revival)' = 復活?</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>'행간' = 行間?</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>行間</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>'실화(truth)' = 實話?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>實話</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>'흉조(fierce)' = 凶兆?</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>凶兆</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>'간호(nurse)' = 干護?</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>'길조' = 吉兆?</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>吉兆</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>'세무(tax)' = 稅務?</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>稅務</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>'유언(will)' = 有言?</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ㄴ</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>遺言</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>'화음(chord)' = 貨音?</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>和音</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>'서막(prelude)' = 誓幕?</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>'도망(escape)' = 逃亡?</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>逃亡</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>'선정' = 善政?</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>善政</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>'화음(chord)' = 話音?</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>和音</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>'서언(oath)' = 誓言?</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>誓言</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>'유교(conf)' = 遺敎?</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>儒敎</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>'유리(favorable)' = 有利?</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>有利</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>'노선(route)' = 路線?</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>路線</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>'유감(pity)' = 有憾?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>遺憾</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>'묵인(default)' = 默認?</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>默認</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>'정의(justice)' = 正義?</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>正義</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>'정파' = 正派?</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>政派</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>'도주(escape)' = 逃走?</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>逃走</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>'투고(posting)' = 投稿?</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>投稿</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>'유리(favorable)' = 遺利?</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>有利</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>'유언(will)' = 儒言?</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>遺言</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>'활로(live)' = 活路?</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>活路</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>'정치(politics)' = 正治?</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>政治</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>'도망(escape)' = 挑亡?</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>逃亡</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>'구현(embodiment)' = 構現?</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>具現</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>'통화(calling)' = 通話?</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>通話</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>'안정(stability)' = 安定?</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>安定</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>'선정' = 選政?</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>善政</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>'재화(money)' = 財貨?</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>財貨</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>'화폐(currency)' = 和幣?</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>'도전(challenge)' = 挑戰?</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>挑戰</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>'간여' = 看與?</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>干與</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>'선택(choose)' = 選擇?</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>'화목(harmony)' = 和睦?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>和睦</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>'참견(see)' = 參見?</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>參見</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>'현상(phenomenon)' = 現象?</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>'화제(topic)' = 話題?</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>'충분(full)' = 充分?</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>充分</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>'화합(harmony)' = 貨合?</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>和合</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>'구현(embodiment)' = 具現?</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>具現</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>'맹세(oath)' = 盟誓?</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>'유산(heritage)' = 遺産?</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>遺産</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>'내과' = 內科?</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>內科</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 序約?</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>'단정(determine)' = 斷定?</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>斷定</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>'매목' = 埋木?</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>埋木</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>'공동(common)' = 公同?</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>共同</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>'시선(vision)' = 視線?</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>視線</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>'야박(scorpion)' = 野薄?</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>野薄</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>'선거(election)' = 善擧?</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>選擧</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>'세금(tax)' = 稅金?</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>稅金</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>'한문(chinese)' = 漢文?</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>漢文</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>'훼손(damage)' = 毁損?</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>'화해(reconciliation)' = 貨解?</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>和解</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>'선수(player)' = 善手?</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>選手</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>'지급(provision)' = 支給?</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>支給</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 話幣?</t>
+          <t>'행간' = 行間?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>行間</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'통제(control)' = 通制?</t>
+          <t>'서언(oath)' = 序言?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,27 +488,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>誓言</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'초유(first)' = 初有?</t>
+          <t>'유리(favorable)' = 遺利?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'경제(economy)' = 經濟?</t>
+          <t>'화두(words)' = 貨頭?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'참가(join)' = 參加?</t>
+          <t>'포기(abandon)' = 抛棄?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>抛棄</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 統貨?</t>
+          <t>'유언(will)' = 有言?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,37 +588,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 有敎?</t>
+          <t>'지급(provision)' = 支給?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>支給</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 構造?</t>
+          <t>'선수(player)' = 選手?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>選手</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'알현(audience)' = 謁見?</t>
+          <t>'화두(words)' = 和頭?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -658,37 +658,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'그병(give)' = 給與?</t>
+          <t>'유교(conf)' = 遺敎?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>給與</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'격언(motto)' = 格言?</t>
+          <t>'정파' = 正派?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>格言</t>
+          <t>政派</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>'직경(diameter)' = 直徑?</t>
+          <t>'투수(pitcher)' = 投手?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,17 +708,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>投手</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'혈세' = 血洗?</t>
+          <t>'동맹(alliance)' = 同盟?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,27 +738,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 有棄?</t>
+          <t>'시선(vision)' = 視線?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>視線</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'언약(appointment)' = 言約?</t>
+          <t>'활력(vitality)' = 活力?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>言約</t>
+          <t>活力</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 回避?</t>
+          <t>'화음(chord)' = 貨音?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>'동화' = 同話?</t>
+          <t>'정파' = 政派?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>政派</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 和解?</t>
+          <t>'곡절(tortuous)' = 曲折?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>曲折</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'보고(report)' = 報告?</t>
+          <t>'알현(audience)' = 謁見?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 挑避?</t>
+          <t>'보판(supplement)' = 補板?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>'입원(hospitalization)' = 入院?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'괴한(blame)' = 怪漢?</t>
+          <t>'선택(choose)' = 善擇?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>選擇</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'곡절(tortuous)' = 曲折?</t>
+          <t>'화폐(currency)' = 話幣?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -938,37 +938,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 儒憾?</t>
+          <t>'세금(tax)' = 稅金?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 具造?</t>
+          <t>'괴한(blame)' = 怪漢?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>怪漢</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 儒棄?</t>
+          <t>'학문(knowledge)' = 學問?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>學問</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,37 +998,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 報板?</t>
+          <t>'유기(abandon)' = 遺棄?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>'귀천(expensive)' = 貴賤?</t>
+          <t>'화폐(currency)' = 和幣?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1038,7 +1038,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>'간만(full)' = 干滿?</t>
+          <t>'도주(escape)' = 逃走?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>逃走</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>'맹방(allies)' = 盟邦?</t>
+          <t>'화두(words)' = 話頭?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>盟邦</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 話合?</t>
+          <t>'통화(calling)' = 通話?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>通話</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>'참석' = 參席?</t>
+          <t>'그병(give)' = 給與?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>給與</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 逃避?</t>
+          <t>'흉조(fierce)' = 凶兆?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>凶兆</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>'발각(find)' = 發覺?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>發覺</t>
+          <t>通話</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 統話?</t>
+          <t>'간호(nurse)' = 看護?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 敎養?</t>
+          <t>'규정(regulation)' = 規定?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>規定</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1198,37 +1198,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 勢務?</t>
+          <t>'유실(lose)' = 遺失?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>'화두(words)' = 貨頭?</t>
+          <t>'참석' = 參席?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>參席</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 貨睦?</t>
+          <t>'지지(support)' = 支持?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>支持</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1258,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 儒産?</t>
+          <t>'구조(structure)' = 具造?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>'도발' = 逃發?</t>
+          <t>'공동(common)' = 共同?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>共同</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1298,7 +1298,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'현실(reality)' = 現實?</t>
+          <t>'공공(public)' = 公共?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>公共</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 話物?</t>
+          <t>'세력(power)' = 勢力?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1338,7 +1338,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>'묵살(kill)' = 默殺?</t>
+          <t>'재화(money)' = 財貨?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>默殺</t>
+          <t>財貨</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1358,17 +1358,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 政治?</t>
+          <t>'동맹(alliance)' = 童盟?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'도발' = 逃發?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1398,7 +1398,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 端定?</t>
+          <t>'통제(control)' = 通制?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'정파' = 政派?</t>
+          <t>'견습(appraise)' = 見習?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>見習</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1438,7 +1438,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'간만(full)' = 看滿?</t>
+          <t>'선거(election)' = 善擧?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1448,17 +1448,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>選擧</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 干拓?</t>
+          <t>'선거(election)' = 選擧?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>選擧</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1478,7 +1478,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 正直?</t>
+          <t>'도전(challenge)' = 挑戰?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>挑戰</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>'조작(construction)' = 造作?</t>
+          <t>'근절(eradication)' = 根絶?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>造作</t>
+          <t>根絶</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1518,7 +1518,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 善擇?</t>
+          <t>'화해(reconciliation)' = 貨解?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1528,17 +1528,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 斷緖?</t>
+          <t>'유교(conf)' = 有敎?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1548,17 +1548,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>'침묵(silence)' = 沈默?</t>
+          <t>'묵인(default)' = 默認?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>沈默</t>
+          <t>默認</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1578,7 +1578,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 和題?</t>
+          <t>'유실(lose)' = 有失?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1598,7 +1598,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>'보고(report)' = 補告?</t>
+          <t>'유언(will)' = 儒言?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1618,7 +1618,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 貨物?</t>
+          <t>'참가(join)' = 參加?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>參加</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1638,7 +1638,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 童盟?</t>
+          <t>'도망(escape)' = 挑亡?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>逃亡</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1658,17 +1658,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>'세력(power)' = 勢力?</t>
+          <t>'통화(currency)' = 統貨?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>通貨</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1678,27 +1678,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>'간섭' = 看涉?</t>
+          <t>'이론(theory)' = 理論?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>理論</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>'유언(will)' = 遺言?</t>
+          <t>'경로(passage)' = 經路?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>經路</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1718,7 +1718,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>'간여' = 干與?</t>
+          <t>'혈세' = 血洗?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>血洗</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1738,17 +1738,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>'투수(pitcher)' = 投手?</t>
+          <t>'화합(harmony)' = 貨合?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1758,7 +1758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>'포기(abandon)' = 抛棄?</t>
+          <t>'유감(pity)' = 遺憾?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1778,7 +1778,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>'공동(common)' = 共同?</t>
+          <t>'내과' = 內科?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1788,27 +1788,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>內科</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 儒敎?</t>
+          <t>'공공(public)' = 共共?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>公共</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1818,7 +1818,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'전선(front)' = 戰線?</t>
+          <t>'약간(slightly)' = 若干?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>若干</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>'채용(use)' = 採用?</t>
+          <t>'동화' = 童話?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>採用</t>
+          <t>童話</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 共感?</t>
+          <t>'야박(scorpion)' = 野薄?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>野薄</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -1898,7 +1898,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 遺憾?</t>
+          <t>'화폐(currency)' = 貨幣?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1918,7 +1918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 補板?</t>
+          <t>'창제(creation)' = 創製?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>創製</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1938,7 +1938,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>'창제(creation)' = 創製?</t>
+          <t>'회피(avoidance)' = 回避?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>回避</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1958,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>'비탄(grief)' = 悲嘆?</t>
+          <t>'한자' = 漢字?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>漢字</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>'화두(words)' = 和頭?</t>
+          <t>'정직(honest)' = 政直?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1998,17 +1998,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>'활력(vitality)' = 活力?</t>
+          <t>'간척(reclamation)' = 看拓?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>活力</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>'귀중(you)' = 貴中?</t>
+          <t>'선택(choose)' = 選擇?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>選擇</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2038,7 +2038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>'투기(dumping)' = 投棄?</t>
+          <t>'참견(see)' = 參見?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>參見</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 儒利?</t>
+          <t>'보판(supplement)' = 報板?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2078,17 +2078,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>'통제(control)' = 統制?</t>
+          <t>'화목(harmony)' = 貨睦?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2098,17 +2098,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 貨題?</t>
+          <t>'간섭' = 干涉?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2118,27 +2118,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 公感?</t>
+          <t>'통제(control)' = 統制?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>'지배(rule)' = 支配?</t>
+          <t>'간여' = 干與?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>支配</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 基盤?</t>
+          <t>'도망(escape)' = 逃亡?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>逃亡</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2178,27 +2178,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>'정부(government)' = 正府?</t>
+          <t>'한문(chinese)' = 漢文?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>漢文</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>'경로(passage)' = 經路?</t>
+          <t>'수용(acceptance)' = 受容?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>受容</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 政義?</t>
+          <t>'유산(heritage)' = 有産?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2238,7 +2238,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'선수(player)' = 選手?</t>
+          <t>'공감(sympathy)' = 共感?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2258,7 +2258,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 政直?</t>
+          <t>'도주(escape)' = 挑走?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>逃走</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2278,17 +2278,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 同盟?</t>
+          <t>'단정(determine)' = 端定?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>斷定</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'선거(election)' = 選擧?</t>
+          <t>'견문(knowledge)' = 見聞?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2318,7 +2318,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>'묵념(silent)' = 默念?</t>
+          <t>'정치(politics)' = 政治?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>默念</t>
+          <t>政治</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2338,17 +2338,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 話解?</t>
+          <t>'도발' = 挑發?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2358,7 +2358,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'근성(guts)' = 根性?</t>
+          <t>'보고(report)' = 報告?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>根性</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2378,7 +2378,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 和音?</t>
+          <t>'서언(oath)' = 誓言?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>誓言</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2398,7 +2398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>'견습(appraise)' = 見習?</t>
+          <t>'정의(justice)' = 正義?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>正義</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2418,7 +2418,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 若干?</t>
+          <t>'근성(guts)' = 根性?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2428,27 +2428,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>根性</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 看拓?</t>
+          <t>'언약(appointment)' = 言約?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>言約</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2458,7 +2458,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 有失?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 遺失?</t>
+          <t>'직경(diameter)' = 直徑?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>直徑</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2498,7 +2498,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>'도발' = 挑發?</t>
+          <t>'서막(prelude)' = 序幕?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2518,7 +2518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 逃戰?</t>
+          <t>'유실(lose)' = 儒失?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2538,7 +2538,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>'언론(remark)' = 言論?</t>
+          <t>'묵념(silent)' = 默念?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>言論</t>
+          <t>默念</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2558,17 +2558,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 勢金?</t>
+          <t>'간척(reclamation)' = 干拓?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2578,17 +2578,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>'견해(opinion)' = 見解?</t>
+          <t>'선정' = 選政?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>善政</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2598,17 +2598,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>'지지(support)' = 支持?</t>
+          <t>'유감(pity)' = 儒憾?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2618,7 +2618,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>'권세(power)' = 權勢?</t>
+          <t>'입원(hospitalization)' = 入院?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>入院</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 端緖?</t>
+          <t>'맹방(allies)' = 盟邦?</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>盟邦</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>'참여(participate)' = 參與?</t>
+          <t>'지배(rule)' = 支配?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>支配</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2678,37 +2678,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 挑走?</t>
+          <t>'맹세(oath)' = 盟誓?</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>盟誓</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 序言?</t>
+          <t>'침묵(silence)' = 沈默?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>沈默</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2718,7 +2718,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>'한자' = 漢字?</t>
+          <t>'화물(goods)' = 貨物?</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2738,7 +2738,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 貨幣?</t>
+          <t>'구조(structure)' = 構造?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2758,17 +2758,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>'남용(abuse)' = 濫用?</t>
+          <t>'정부(government)' = 正府?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>濫用</t>
+          <t>政府</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2778,57 +2778,57 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>'대화(dialogue)' = 對話?</t>
+          <t>'유산(heritage)' = 儒産?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>對話</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 有産?</t>
+          <t>'도피(escape)' = 逃避?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 和物?</t>
+          <t>'길조' = 吉兆?</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>吉兆</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 受容?</t>
+          <t>'활로(live)' = 活路?</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>活路</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2858,7 +2858,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>'정부(government)' = 政府?</t>
+          <t>'유리(favorable)' = 有利?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2878,17 +2878,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 看護?</t>
+          <t>'세금(tax)' = 勢金?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2898,7 +2898,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 序幕?</t>
+          <t>'경위' = 經緯?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>經緯</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2918,7 +2918,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>'공공(public)' = 公共?</t>
+          <t>'기반(basis)' = 基盤?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>基盤</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2938,7 +2938,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
+          <t>'묵살(kill)' = 默殺?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>默殺</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2958,17 +2958,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>'화두(words)' = 話頭?</t>
+          <t>'화해(reconciliation)' = 話解?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2978,7 +2978,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>'공공(public)' = 共共?</t>
+          <t>'구현(embodiment)' = 構現?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2998,27 +2998,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 遺棄?</t>
+          <t>'간섭' = 看涉?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>'학문(knowledge)' = 學問?</t>
+          <t>'매목' = 埋木?</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3028,17 +3028,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>埋木</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>'견문(knowledge)' = 見聞?</t>
+          <t>'격언(motto)' = 格言?</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>格言</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3058,17 +3058,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 儒失?</t>
+          <t>'참여(participate)' = 參與?</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3078,7 +3078,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 誓約?</t>
+          <t>'노선(route)' = 路線?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>路線</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3098,7 +3098,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>'망조(omen)' = 亡兆?</t>
+          <t>'화해(reconciliation)' = 和解?</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>亡兆</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3118,7 +3118,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 和合?</t>
+          <t>'충분(full)' = 充分?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>充分</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3138,7 +3138,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>'세력(power)' = 稅力?</t>
+          <t>'유리(favorable)' = 儒利?</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3158,17 +3158,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>'근절(eradication)' = 根絶?</t>
+          <t>'공감(sympathy)' = 公感?</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3178,27 +3178,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 話睦?</t>
+          <t>'전선(front)' = 戰線?</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>戰線</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>'이론(theory)' = 理論?</t>
+          <t>'부활(revival)' = 復活?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>復活</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3218,7 +3218,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 通貨?</t>
+          <t>'화목(harmony)' = 和睦?</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3238,7 +3238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>'동화' = 童話?</t>
+          <t>'서약(vow)' = 誓約?</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>誓約</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3258,17 +3258,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>'경위' = 經緯?</t>
+          <t>'유감(pity)' = 有憾?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3278,7 +3278,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>'규정(regulation)' = 規定?</t>
+          <t>'안정(stability)' = 安定?</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>規定</t>
+          <t>安定</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3298,17 +3298,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>'강도(strength)' = 強度?</t>
+          <t>'화물(goods)' = 和物?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3318,7 +3318,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>'부활(revival)' = 復活?</t>
+          <t>'경제(economy)' = 經濟?</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>復活</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3338,27 +3338,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'보고(report)' = 補告?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>'실화(truth)' = 實話?</t>
+          <t>'정직(honest)' = 正直?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>實話</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3378,17 +3378,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>'흉조(fierce)' = 凶兆?</t>
+          <t>'도피(escape)' = 挑避?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>凶兆</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3398,17 +3398,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 干護?</t>
+          <t>'남용(abuse)' = 濫用?</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>濫用</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3418,7 +3418,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>'길조' = 吉兆?</t>
+          <t>'초유(first)' = 初有?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>吉兆</t>
+          <t>初有</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3438,7 +3438,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 稅務?</t>
+          <t>'귀중(you)' = 貴中?</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3448,17 +3448,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>貴中</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>'유언(will)' = 有言?</t>
+          <t>'간여' = 看與?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3478,7 +3478,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 貨音?</t>
+          <t>'유기(abandon)' = 有棄?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3488,37 +3488,37 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 誓幕?</t>
+          <t>'단정(determine)' = 斷定?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>斷定</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 逃亡?</t>
+          <t>'언론(remark)' = 言論?</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>言論</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3538,7 +3538,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>'선정' = 善政?</t>
+          <t>'발각(find)' = 發覺?</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>發覺</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,7 +3558,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 話音?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>童話</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3578,17 +3578,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 誓言?</t>
+          <t>'화물(goods)' = 話物?</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3598,17 +3598,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 遺敎?</t>
+          <t>'망조(omen)' = 亡兆?</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>亡兆</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3618,27 +3618,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 有利?</t>
+          <t>'서약(vow)' = 序約?</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>誓約</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>'노선(route)' = 路線?</t>
+          <t>'권세(power)' = 權勢?</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3658,17 +3658,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 有憾?</t>
+          <t>'선정' = 善政?</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>善政</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3678,7 +3678,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>'묵인(default)' = 默認?</t>
+          <t>'화합(harmony)' = 和合?</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>默認</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3698,17 +3698,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 正義?</t>
+          <t>'화음(chord)' = 話音?</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3718,7 +3718,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>'정파' = 正派?</t>
+          <t>'화목(harmony)' = 話睦?</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3738,7 +3738,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 逃走?</t>
+          <t>'유언(will)' = 遺言?</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3758,7 +3758,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>'투고(posting)' = 投稿?</t>
+          <t>'투기(dumping)' = 投棄?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3768,27 +3768,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>投棄</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 遺利?</t>
+          <t>'조작(construction)' = 造作?</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>造作</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3798,17 +3798,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'유언(will)' = 儒言?</t>
+          <t>'귀천(expensive)' = 貴賤?</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>貴賤</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3818,7 +3818,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>'활로(live)' = 活路?</t>
+          <t>'통화(currency)' = 通貨?</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>活路</t>
+          <t>通貨</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3838,17 +3838,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 正治?</t>
+          <t>'대화(dialogue)' = 對話?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>對話</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3858,27 +3858,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 挑亡?</t>
+          <t>'간만(full)' = 干滿?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 構現?</t>
+          <t>'간만(full)' = 看滿?</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3888,77 +3888,77 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 通話?</t>
+          <t>'세력(power)' = 稅力?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>'안정(stability)' = 安定?</t>
+          <t>'정치(politics)' = 正治?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>安定</t>
+          <t>政治</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>'선정' = 選政?</t>
+          <t>'투고(posting)' = 投稿?</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>投稿</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>'재화(money)' = 財貨?</t>
+          <t>'유교(conf)' = 儒敎?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3968,37 +3968,37 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>財貨</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 和幣?</t>
+          <t>'단서(ductive)' = 端緖?</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 挑戰?</t>
+          <t>'현상(phenomenon)' = 現象?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4008,37 +4008,37 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>現象</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>'간여' = 看與?</t>
+          <t>'교양(cure)' = 敎養?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>敎養</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 選擇?</t>
+          <t>'견해(opinion)' = 見解?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4048,37 +4048,37 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>見解</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 和睦?</t>
+          <t>'도전(challenge)' = 逃戰?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>挑戰</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>'참견(see)' = 參見?</t>
+          <t>'현실(reality)' = 現實?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>現實</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>'현상(phenomenon)' = 現象?</t>
+          <t>'유산(heritage)' = 遺産?</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4108,37 +4108,37 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>現象</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 話題?</t>
+          <t>'세무(tax)' = 勢務?</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>'충분(full)' = 充分?</t>
+          <t>'강도(strength)' = 強度?</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>充分</t>
+          <t>強度</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4158,7 +4158,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 貨合?</t>
+          <t>'간호(nurse)' = 干護?</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4168,37 +4168,37 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 具現?</t>
+          <t>'정의(justice)' = 政義?</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>正義</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>'맹세(oath)' = 盟誓?</t>
+          <t>'채용(use)' = 採用?</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4208,17 +4208,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>盟誓</t>
+          <t>採用</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 遺産?</t>
+          <t>'비탄(grief)' = 悲嘆?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>悲嘆</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4238,7 +4238,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>'내과' = 內科?</t>
+          <t>'훼손(damage)' = 毁損?</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>毁損</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4258,7 +4258,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 序約?</t>
+          <t>'화제(topic)' = 貨題?</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4268,17 +4268,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 斷定?</t>
+          <t>'화제(topic)' = 話題?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4298,7 +4298,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>'매목' = 埋木?</t>
+          <t>'구현(embodiment)' = 具現?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4318,7 +4318,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>'공동(common)' = 公同?</t>
+          <t>'서막(prelude)' = 誓幕?</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4328,27 +4328,27 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>'시선(vision)' = 視線?</t>
+          <t>'선수(player)' = 善手?</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>選手</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4358,27 +4358,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>'야박(scorpion)' = 野薄?</t>
+          <t>'공동(common)' = 公同?</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>共同</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>'선거(election)' = 善擧?</t>
+          <t>'유기(abandon)' = 儒棄?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4398,7 +4398,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 稅金?</t>
+          <t>'화음(chord)' = 和音?</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4418,7 +4418,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>'한문(chinese)' = 漢文?</t>
+          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>捷徑</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4438,7 +4438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>'훼손(damage)' = 毁損?</t>
+          <t>'세무(tax)' = 稅務?</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4458,7 +4458,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 貨解?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4468,37 +4468,37 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>'선수(player)' = 善手?</t>
+          <t>'실화(truth)' = 實話?</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>實話</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>'지급(provision)' = 支給?</t>
+          <t>'정부(government)' = 政府?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>支給</t>
+          <t>政府</t>
         </is>
       </c>
       <c r="D204" t="n">

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>'입원(hospitalization)' = 入院?</t>
+          <t>'간호(nurse)' = 間護?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>看護</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>'보고(report)' = 報告?</t>
+          <t>'입원(hospitalization)' = 入院?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>入院</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>'보고(report)' = 補告?</t>
+          <t>'보고(report)' = 報告?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>'곡절(tortuous)' = 曲折?</t>
+          <t>'보고(report)' = 補告?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>報告</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>'초유(first)' = 初有?</t>
+          <t>'곡절(tortuous)' = 曲折?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>曲折</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 序幕?</t>
+          <t>'초유(first)' = 初有?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>初有</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 誓幕?</t>
+          <t>'서막(prelude)' = 序幕?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 敎養?</t>
+          <t>'서막(prelude)' = 誓幕?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>序幕</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>'이론(theory)' = 理論?</t>
+          <t>'교양(cure)' = 敎養?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>敎養</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 儒敎?</t>
+          <t>'이론(theory)' = 理論?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>理論</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 遺敎?</t>
+          <t>'유교(conf)' = 儒敎?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 有敎?</t>
+          <t>'유교(conf)' = 遺敎?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'학문(knowledge)' = 學問?</t>
+          <t>'유교(conf)' = 有敎?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 受容?</t>
+          <t>'학문(knowledge)' = 學問?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>學問</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>'귀중(you)' = 貴中?</t>
+          <t>'수용(acceptance)' = 受容?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>受容</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>'귀천(expensive)' = 貴賤?</t>
+          <t>'귀중(you)' = 貴中?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>貴中</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 儒産?</t>
+          <t>'귀천(expensive)' = 貴賤?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>貴賤</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 遺産?</t>
+          <t>'유산(heritage)' = 儒産?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 有産?</t>
+          <t>'유산(heritage)' = 遺産?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>'유언(will)' = 儒言?</t>
+          <t>'유산(heritage)' = 有産?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>遺産</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'유언(will)' = 遺言?</t>
+          <t>'유언(will)' = 儒言?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>'유언(will)' = 有言?</t>
+          <t>'유언(will)' = 遺言?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 儒失?</t>
+          <t>'유언(will)' = 有言?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>遺言</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 遺失?</t>
+          <t>'유실(lose)' = 儒失?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 有失?</t>
+          <t>'유실(lose)' = 遺失?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 儒棄?</t>
+          <t>'유실(lose)' = 有失?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>遺失</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 遺棄?</t>
+          <t>'유기(abandon)' = 儒棄?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 有棄?</t>
+          <t>'유기(abandon)' = 遺棄?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>'투고(posting)' = 投稿?</t>
+          <t>'유기(abandon)' = 有棄?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>'투수(pitcher)' = 投手?</t>
+          <t>'투고(posting)' = 投稿?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>投稿</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>'투기(dumping)' = 投棄?</t>
+          <t>'투수(pitcher)' = 投手?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>投手</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>'포기(abandon)' = 抛棄?</t>
+          <t>'투기(dumping)' = 投棄?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>投棄</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>'노선(route)' = 路線?</t>
+          <t>'포기(abandon)' = 抛棄?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>抛棄</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>'전선(front)' = 戰線?</t>
+          <t>'노선(route)' = 路線?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>路線</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>'시선(vision)' = 視線?</t>
+          <t>'전선(front)' = 戰線?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>戰線</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>'근절(eradication)' = 根絶?</t>
+          <t>'시선(vision)' = 視線?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>視線</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>'간섭' = 看涉?</t>
+          <t>'근절(eradication)' = 根絶?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>根絶</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'간섭' = 看涉?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>'간여' = 看與?</t>
+          <t>'간섭' = 干涉?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>干涉</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>'간여' = 干與?</t>
+          <t>'간섭' = 間涉?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>干涉</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 若干?</t>
+          <t>'간여' = 看與?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>'간만(full)' = 看滿?</t>
+          <t>'간여' = 干與?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>'간만(full)' = 干滿?</t>
+          <t>'간여' = 間與?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 看拓?</t>
+          <t>'약간(slightly)' = 若干?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>若干</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 干拓?</t>
+          <t>'간만(full)' = 看滿?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>'견습(appraise)' = 見習?</t>
+          <t>'간만(full)' = 干滿?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>'견해(opinion)' = 見解?</t>
+          <t>'간만(full)' = 間滿?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>'견문(knowledge)' = 見聞?</t>
+          <t>'간척(reclamation)' = 看拓?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>'알현(audience)' = 謁見?</t>
+          <t>'간척(reclamation)' = 干拓?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>'참가(join)' = 參加?</t>
+          <t>'간척(reclamation)' = 間拓?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>'참석' = 參席?</t>
+          <t>'견습(appraise)' = 見習?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>見習</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>'참견(see)' = 參見?</t>
+          <t>'견해(opinion)' = 見解?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>見解</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>'참여(participate)' = 參與?</t>
+          <t>'견문(knowledge)' = 見聞?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>見聞</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>'경위' = 經緯?</t>
+          <t>'알현(audience)' = 謁見?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>謁見</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 和睦?</t>
+          <t>'참가(join)' = 參加?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>參加</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 話睦?</t>
+          <t>'참석' = 參席?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>參席</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 貨睦?</t>
+          <t>'참견(see)' = 參見?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>參見</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 和音?</t>
+          <t>'참여(participate)' = 參與?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>參與</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 話音?</t>
+          <t>'경위' = 經緯?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>經緯</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 貨音?</t>
+          <t>'화목(harmony)' = 和睦?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 和解?</t>
+          <t>'화목(harmony)' = 話睦?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 話解?</t>
+          <t>'화목(harmony)' = 貨睦?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 貨解?</t>
+          <t>'화음(chord)' = 和音?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 和合?</t>
+          <t>'화음(chord)' = 話音?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 話合?</t>
+          <t>'화음(chord)' = 貨音?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 貨合?</t>
+          <t>'화해(reconciliation)' = 和解?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 稅金?</t>
+          <t>'화해(reconciliation)' = 話解?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 勢金?</t>
+          <t>'화해(reconciliation)' = 貨解?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>'혈세' = 血洗?</t>
+          <t>'화합(harmony)' = 和合?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 稅務?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 勢務?</t>
+          <t>'화합(harmony)' = 貨合?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>'세력(power)' = 稅力?</t>
+          <t>'세금(tax)' = 稅金?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>稅金</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>'세력(power)' = 勢力?</t>
+          <t>'세금(tax)' = 勢金?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>稅金</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>'권세(power)' = 權勢?</t>
+          <t>'혈세' = 血洗?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>血洗</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>'경제(economy)' = 經濟?</t>
+          <t>'세무(tax)' = 稅務?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>稅務</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
+          <t>'세무(tax)' = 勢務?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>稅務</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>'경로(passage)' = 經路?</t>
+          <t>'세력(power)' = 稅力?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>勢力</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>'직경(diameter)' = 直徑?</t>
+          <t>'세력(power)' = 勢力?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>勢力</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>'한문(chinese)' = 漢文?</t>
+          <t>'권세(power)' = 權勢?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>權勢</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>'한자' = 漢字?</t>
+          <t>'경제(economy)' = 經濟?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>'괴한(blame)' = 怪漢?</t>
+          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>捷徑</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>'비탄(grief)' = 悲嘆?</t>
+          <t>'경로(passage)' = 經路?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>經路</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 基盤?</t>
+          <t>'직경(diameter)' = 直徑?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>直徑</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>'창제(creation)' = 創製?</t>
+          <t>'한문(chinese)' = 漢文?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>漢文</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 具現?</t>
+          <t>'한자' = 漢字?</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>漢字</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 構現?</t>
+          <t>'괴한(blame)' = 怪漢?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>怪漢</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 儒利?</t>
+          <t>'비탄(grief)' = 悲嘆?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>悲嘆</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 遺利?</t>
+          <t>'비탄(grief)' = 比嘆?</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>悲嘆</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 有利?</t>
+          <t>'기반(basis)' = 基盤?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>基盤</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>'강도(strength)' = 強度?</t>
+          <t>'창제(creation)' = 創製?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>創製</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>'통제(control)' = 統制?</t>
+          <t>'구현(embodiment)' = 具現?</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>具現</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>'통제(control)' = 通制?</t>
+          <t>'구현(embodiment)' = 構現?</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>具現</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'유리(favorable)' = 儒利?</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>有利</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 端緖?</t>
+          <t>'유리(favorable)' = 遺利?</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>有利</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 斷緖?</t>
+          <t>'유리(favorable)' = 有利?</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>有利</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>'훼손(damage)' = 毁損?</t>
+          <t>'강도(strength)' = 強度?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>強度</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>'매목' = 埋木?</t>
+          <t>'통제(control)' = 統制?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>統制</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 象嵌?</t>
+          <t>'통제(control)' = 通制?</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>象嵌</t>
+          <t>統制</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 報板?</t>
+          <t>'행간' = 行間?</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>行間</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 補板?</t>
+          <t>'단서(ductive)' = 端緖?</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>端緖</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>'현실(reality)' = 現實?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>端緖</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>'야박(scorpion)' = 野薄?</t>
+          <t>'훼손(damage)' = 毁損?</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>毁損</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>'근성(guts)' = 根性?</t>
+          <t>'매목' = 埋木?</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>根性</t>
+          <t>埋木</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>'채용(use)' = 採用?</t>
+          <t>'상감(inlaid)' = 象嵌?</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>採用</t>
+          <t>象嵌</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>'활력(vitality)' = 活力?</t>
+          <t>'보판(supplement)' = 報板?</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>活力</t>
+          <t>補板</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>'활로(live)' = 活路?</t>
+          <t>'보판(supplement)' = 補板?</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>活路</t>
+          <t>補板</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>'부활(revival)' = 復活?</t>
+          <t>'현실(reality)' = 現實?</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>復活</t>
+          <t>現實</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>'대화(dialogue)' = 對話?</t>
+          <t>'야박(scorpion)' = 野薄?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>對話</t>
+          <t>野薄</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>'동화' = 童話?</t>
+          <t>'근성(guts)' = 根性?</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>根性</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>'동화' = 同話?</t>
+          <t>'채용(use)' = 採用?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>採用</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>'실화(truth)' = 實話?</t>
+          <t>'활력(vitality)' = 活力?</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>實話</t>
+          <t>活力</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 共感?</t>
+          <t>'활로(live)' = 活路?</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>活路</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 公感?</t>
+          <t>'부활(revival)' = 復活?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>復活</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>'공공(public)' = 共共?</t>
+          <t>'대화(dialogue)' = 對話?</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>對話</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>'공공(public)' = 公共?</t>
+          <t>'동화' = 童話?</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>童話</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>'공동(common)' = 公同?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>童話</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>'공동(common)' = 共同?</t>
+          <t>'실화(truth)' = 實話?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>實話</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>'선거(election)' = 選擧?</t>
+          <t>'공감(sympathy)' = 共感?</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>共感</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>'선거(election)' = 善擧?</t>
+          <t>'공감(sympathy)' = 公感?</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>共感</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>'선수(player)' = 選手?</t>
+          <t>'공공(public)' = 共共?</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>公共</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>'선수(player)' = 善手?</t>
+          <t>'공공(public)' = 公共?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>公共</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 選擇?</t>
+          <t>'공동(common)' = 公同?</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>共同</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 善擇?</t>
+          <t>'공동(common)' = 共同?</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>共同</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>'언약(appointment)' = 言約?</t>
+          <t>'선거(election)' = 選擧?</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>言約</t>
+          <t>選擧</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2996,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>'언론(remark)' = 言論?</t>
+          <t>'선거(election)' = 善擧?</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>言論</t>
+          <t>選擧</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>'격언(motto)' = 格言?</t>
+          <t>'선수(player)' = 選手?</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>格言</t>
+          <t>選手</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>'화두(words)' = 和頭?</t>
+          <t>'선수(player)' = 善手?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>選手</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>'화두(words)' = 話頭?</t>
+          <t>'선택(choose)' = 選擇?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>選擇</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>'화두(words)' = 貨頭?</t>
+          <t>'선택(choose)' = 善擇?</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>選擇</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 統話?</t>
+          <t>'언약(appointment)' = 言約?</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>言約</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 通話?</t>
+          <t>'언론(remark)' = 言論?</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>言論</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 和題?</t>
+          <t>'격언(motto)' = 格言?</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>格言</t>
         </is>
       </c>
     </row>
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 話題?</t>
+          <t>'화두(words)' = 和頭?</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>話頭</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3176,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 貨題?</t>
+          <t>'화두(words)' = 話頭?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>話頭</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 統貨?</t>
+          <t>'화두(words)' = 貨頭?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>話頭</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 通貨?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>通話</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>'재화(money)' = 財貨?</t>
+          <t>'통화(calling)' = 通話?</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>財貨</t>
+          <t>通話</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 和幣?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>話題</t>
         </is>
       </c>
     </row>
@@ -3276,17 +3276,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 話幣?</t>
+          <t>'화제(topic)' = 話題?</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>話題</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 貨幣?</t>
+          <t>'화제(topic)' = 貨題?</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>話題</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 和物?</t>
+          <t>'통화(currency)' = 統貨?</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>通貨</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 話物?</t>
+          <t>'통화(currency)' = 通貨?</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>通貨</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 貨物?</t>
+          <t>'재화(money)' = 財貨?</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>財貨</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 正義?</t>
+          <t>'화폐(currency)' = 和幣?</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>貨幣</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 政義?</t>
+          <t>'화폐(currency)' = 話幣?</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>貨幣</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 正直?</t>
+          <t>'화폐(currency)' = 貨幣?</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>貨幣</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 政直?</t>
+          <t>'화물(goods)' = 和物?</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>貨物</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 正治?</t>
+          <t>'화물(goods)' = 話物?</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>貨物</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 政治?</t>
+          <t>'화물(goods)' = 貨物?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>貨物</t>
         </is>
       </c>
     </row>
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>'정부(government)' = 正府?</t>
+          <t>'정의(justice)' = 正義?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>正義</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>'정부(government)' = 政府?</t>
+          <t>'정의(justice)' = 政義?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>正義</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>'정파' = 正派?</t>
+          <t>'정직(honest)' = 正直?</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>正直</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>'정파' = 政派?</t>
+          <t>'정직(honest)' = 政直?</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>正直</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>'선정' = 選政?</t>
+          <t>'정치(politics)' = 正治?</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>政治</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>'선정' = 善政?</t>
+          <t>'정치(politics)' = 政治?</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>政治</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 端定?</t>
+          <t>'정부(government)' = 正府?</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>政府</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 斷定?</t>
+          <t>'정부(government)' = 政府?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>政府</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>'안정(stability)' = 安定?</t>
+          <t>'정파' = 正派?</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>安定</t>
+          <t>政派</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>'규정(regulation)' = 規定?</t>
+          <t>'정파' = 政派?</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>規定</t>
+          <t>政派</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 具造?</t>
+          <t>'선정' = 選政?</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>善政</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 構造?</t>
+          <t>'선정' = 善政?</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>善政</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>'충분(full)' = 充分?</t>
+          <t>'단정(determine)' = 端定?</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>充分</t>
+          <t>斷定</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>'현상(phenomenon)' = 現象?</t>
+          <t>'단정(determine)' = 斷定?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>現象</t>
+          <t>斷定</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>'조작(construction)' = 造作?</t>
+          <t>'안정(stability)' = 安定?</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>造作</t>
+          <t>安定</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>'발각(find)' = 發覺?</t>
+          <t>'규정(regulation)' = 規定?</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>發覺</t>
+          <t>規定</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>'남용(abuse)' = 濫用?</t>
+          <t>'구조(structure)' = 具造?</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>濫用</t>
+          <t>構造</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>'사건(event)' = 事件?</t>
+          <t>'구조(structure)' = 構造?</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>事件</t>
+          <t>構造</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3856,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 儒憾?</t>
+          <t>'충분(full)' = 充分?</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>充分</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 有憾?</t>
+          <t>'현상(phenomenon)' = 現象?</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>現象</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 遺憾?</t>
+          <t>'조작(construction)' = 造作?</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>造作</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>'길조' = 吉兆?</t>
+          <t>'발각(find)' = 發覺?</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>吉兆</t>
+          <t>發覺</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>'흉조(fierce)' = 凶兆?</t>
+          <t>'남용(abuse)' = 濫用?</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>凶兆</t>
+          <t>濫用</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>'망조(omen)' = 亡兆?</t>
+          <t>'사건(event)' = 事件?</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>亡兆</t>
+          <t>事件</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>'도발' = 挑發?</t>
+          <t>'유감(pity)' = 儒憾?</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>'도발' = 逃發?</t>
+          <t>'유감(pity)' = 有憾?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 挑戰?</t>
+          <t>'유감(pity)' = 遺憾?</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 逃戰?</t>
+          <t>'길조' = 吉兆?</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>吉兆</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 挑亡?</t>
+          <t>'흉조(fierce)' = 凶兆?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>凶兆</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 逃亡?</t>
+          <t>'망조(omen)' = 亡兆?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>亡兆</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 挑走?</t>
+          <t>'도발' = 挑發?</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>挑發</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 逃走?</t>
+          <t>'도발' = 逃發?</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>挑發</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 挑避?</t>
+          <t>'도전(challenge)' = 挑戰?</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>挑戰</t>
         </is>
       </c>
     </row>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 逃避?</t>
+          <t>'도전(challenge)' = 逃戰?</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>挑戰</t>
         </is>
       </c>
     </row>
@@ -4176,17 +4176,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 回避?</t>
+          <t>'도망(escape)' = 挑亡?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>逃亡</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>'지지(support)' = 支持?</t>
+          <t>'도망(escape)' = 逃亡?</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>逃亡</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4216,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>'지배(rule)' = 支配?</t>
+          <t>'도주(escape)' = 挑走?</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>支配</t>
+          <t>逃走</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>'지급(provision)' = 支給?</t>
+          <t>'도주(escape)' = 逃走?</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>支給</t>
+          <t>逃走</t>
         </is>
       </c>
     </row>
@@ -4256,17 +4256,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>'급여(give)' = 給與?</t>
+          <t>'도피(escape)' = 挑避?</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>給與</t>
+          <t>逃避</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>'침묵(silence)' = 沈默?</t>
+          <t>'도피(escape)' = 逃避?</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>沈默</t>
+          <t>逃避</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>'묵인(default)' = 默認?</t>
+          <t>'회피(avoidance)' = 回避?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>默認</t>
+          <t>回避</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>'묵살(kill)' = 默殺?</t>
+          <t>'지지(support)' = 支持?</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>默殺</t>
+          <t>支持</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>'묵념(silent)' = 默念?</t>
+          <t>'지배(rule)' = 支配?</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>默念</t>
+          <t>支配</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 童盟?</t>
+          <t>'지급(provision)' = 支給?</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>支給</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 同盟?</t>
+          <t>'급여(give)' = 給與?</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>給與</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>'맹세(oath)' = 盟誓?</t>
+          <t>'침묵(silence)' = 沈默?</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>盟誓</t>
+          <t>沈默</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>'맹방(allies)' = 盟邦?</t>
+          <t>'묵인(default)' = 默認?</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>盟邦</t>
+          <t>默認</t>
         </is>
       </c>
     </row>
@@ -4436,17 +4436,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 序約?</t>
+          <t>'묵살(kill)' = 默殺?</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>默殺</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 誓約?</t>
+          <t>'묵념(silent)' = 默念?</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>默念</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 序言?</t>
+          <t>'동맹(alliance)' = 童盟?</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>同盟</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,457 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>'동맹(alliance)' = 同盟?</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>同盟</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>'맹세(oath)' = 盟誓?</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>'맹방(allies)' = 盟邦?</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>盟邦</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 序約?</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>'서약(vow)' = 誓約?</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>'서언(oath)' = 序言?</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>誓言</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>'서언(oath)' = 誓言?</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>ㅇ</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>誓言</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>'방자' = 放恣?</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>'방자' = 防恣?</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>'자세(carefulness)' = 仔細?</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>仔細</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>'자세(carefulness)' = 姿細?</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>仔細</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>'자태(attitude)' = 仔態?</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>姿態</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>'자태(attitude)' = 姿態?</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>姿態</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>'간발(interim)' = 看髮?</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>'간발(interim)' = 干髮?</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>'간발(interim)' = 間髮?</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>'비견(shoulder)' = 悲肩?</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>比肩</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>'비견(shoulder)' = 比肩?</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>比肩</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>'침체(depression)' = 沈滯?</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>'위축(atrophy)' = 萎縮?</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>'차치(put)' = 且置?</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>且置</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>'방역' = 放疫?</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>防疫</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>'방역' = 防疫?</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>防疫</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'화두(words)' = 貨頭?</t>
+          <t>'화해(reconciliation)' = 貨解?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 姿細?</t>
+          <t>'유기(abandon)' = 遺棄?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 稅金?</t>
+          <t>'보판(supplement)' = 補板?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>'참석' = 參席?</t>
+          <t>'간섭' = 間涉?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>'근성(guts)' = 根性?</t>
+          <t>'도전(challenge)' = 挑戰?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,27 +548,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>根性</t>
+          <t>挑戰</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 報板?</t>
+          <t>'알현(audience)' = 謁見?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'경제(economy)' = 經濟?</t>
+          <t>'화합(harmony)' = 貨合?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'간만(full)' = 間滿?</t>
+          <t>'간호(nurse)' = 間護?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 看拓?</t>
+          <t>'유감(pity)' = 有憾?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,17 +628,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'보고(report)' = 報告?</t>
+          <t>'정직(honest)' = 正直?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,27 +648,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 公感?</t>
+          <t>'도망(escape)' = 逃亡?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>逃亡</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 序約?</t>
+          <t>'간발(interim)' = 間髮?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>間髮</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>'통제(control)' = 統制?</t>
+          <t>'통화(calling)' = 通話?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>通話</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -718,27 +718,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 具造?</t>
+          <t>'대화(dialogue)' = 對話?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>對話</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>'투수(pitcher)' = 投手?</t>
+          <t>'간척(reclamation)' = 干拓?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'간여' = 看與?</t>
+          <t>'화음(chord)' = 貨音?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 貨音?</t>
+          <t>'귀천(expensive)' = 貴賤?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>貴賤</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,7 +798,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>'발각(find)' = 發覺?</t>
+          <t>'재화(money)' = 財貨?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>發覺</t>
+          <t>財貨</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'묵념(silent)' = 默念?</t>
+          <t>'동맹(alliance)' = 童盟?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>默念</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>'부활(revival)' = 復活?</t>
+          <t>'길조' = 吉兆?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -848,37 +848,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>復活</t>
+          <t>吉兆</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 和解?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'충분(full)' = 充分?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -888,57 +888,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>充分</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'투고(posting)' = 投稿?</t>
+          <t>'세력(power)' = 稅力?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'지배(rule)' = 支配?</t>
+          <t>'자태(attitude)' = 仔態?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>支配</t>
+          <t>姿態</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>'혈세' = 血洗?</t>
+          <t>'창제(creation)' = 創製?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>創製</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>'견습(appraise)' = 見習?</t>
+          <t>'보판(supplement)' = 報板?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 政義?</t>
+          <t>'도주(escape)' = 逃走?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>逃走</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,47 +998,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 儒産?</t>
+          <t>'서막(prelude)' = 序幕?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>'보고(report)' = 補告?</t>
+          <t>'화해(reconciliation)' = 和解?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>'급여(give)' = 給與?</t>
+          <t>'선거(election)' = 選擧?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>給與</t>
+          <t>選擧</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 通話?</t>
+          <t>'간만(full)' = 干滿?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1078,7 +1078,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 遺憾?</t>
+          <t>'공감(sympathy)' = 共感?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 間護?</t>
+          <t>'견해(opinion)' = 見解?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>見解</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,57 +1118,57 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>'통제(control)' = 通制?</t>
+          <t>'견습(appraise)' = 見習?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>見習</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 童盟?</t>
+          <t>'동화' = 童話?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>童話</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 挑亡?</t>
+          <t>'흉조(fierce)' = 凶兆?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>凶兆</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1178,7 +1178,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 正直?</t>
+          <t>'망조(omen)' = 亡兆?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>亡兆</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>'선정' = 善政?</t>
+          <t>'참가(join)' = 參加?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>參加</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>'채용(use)' = 採用?</t>
+          <t>'화폐(currency)' = 和幣?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>採用</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1238,7 +1238,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>'학문(knowledge)' = 學問?</t>
+          <t>'경로(passage)' = 經路?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>經路</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1258,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 話幣?</t>
+          <t>'구조(structure)' = 具造?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1278,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>'직경(diameter)' = 直徑?</t>
+          <t>'지배(rule)' = 支配?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>支配</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1298,27 +1298,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'남용(abuse)' = 濫用?</t>
+          <t>'비탄(grief)' = 比嘆?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>濫用</t>
+          <t>悲嘆</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'초유(first)' = 初有?</t>
+          <t>'야박(scorpion)' = 野薄?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>野薄</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>'세력(power)' = 稅力?</t>
+          <t>'정파' = 正派?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>政派</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1358,7 +1358,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 善擇?</t>
+          <t>'구현(embodiment)' = 構現?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>'귀중(you)' = 貴中?</t>
+          <t>'매목' = 埋木?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>埋木</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1398,47 +1398,47 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>'비탄(grief)' = 悲嘆?</t>
+          <t>'화목(harmony)' = 話睦?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'경위' = 經緯?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'비견(shoulder)' = 比肩?</t>
+          <t>'강도(strength)' = 強度?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1448,17 +1448,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>比肩</t>
+          <t>強度</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>'참여(participate)' = 參與?</t>
+          <t>'기반(basis)' = 基盤?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>基盤</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 受容?</t>
+          <t>'자태(attitude)' = 姿態?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>姿態</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>'견해(opinion)' = 見解?</t>
+          <t>'이론(theory)' = 理論?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>理論</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1518,37 +1518,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 和題?</t>
+          <t>'경위' = 經緯?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>經緯</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>'도발' = 逃發?</t>
+          <t>'규정(regulation)' = 規定?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>規定</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 政治?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>童話</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1578,47 +1578,47 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 貨幣?</t>
+          <t>'통제(control)' = 通制?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 逃戰?</t>
+          <t>'투수(pitcher)' = 投手?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>投手</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 和音?</t>
+          <t>'화폐(currency)' = 貨幣?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1638,7 +1638,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 有失?</t>
+          <t>'유산(heritage)' = 有産?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1648,37 +1648,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 話音?</t>
+          <t>'경제(economy)' = 經濟?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 挑戰?</t>
+          <t>'묵살(kill)' = 默殺?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1688,17 +1688,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>默殺</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 端緖?</t>
+          <t>'정의(justice)' = 正義?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>正義</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1718,7 +1718,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>'방역' = 放疫?</t>
+          <t>'화두(words)' = 貨頭?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>防疫</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>'선택(choose)' = 選擇?</t>
+          <t>'수용(acceptance)' = 受容?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1748,37 +1748,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>選擇</t>
+          <t>受容</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 同盟?</t>
+          <t>'유실(lose)' = 儒失?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>'간여' = 干與?</t>
+          <t>'세금(tax)' = 稅金?</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1788,27 +1788,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>'권세(power)' = 權勢?</t>
+          <t>'화해(reconciliation)' = 話解?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1818,17 +1818,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 儒利?</t>
+          <t>'참여(participate)' = 參與?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1838,7 +1838,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>'귀천(expensive)' = 貴賤?</t>
+          <t>'자세(carefulness)' = 仔細?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>仔細</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>'한자' = 漢字?</t>
+          <t>'시선(vision)' = 視線?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1868,37 +1868,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>視線</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>'길조' = 吉兆?</t>
+          <t>'화음(chord)' = 話音?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>吉兆</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>'경로(passage)' = 經路?</t>
+          <t>'단정(determine)' = 斷定?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>斷定</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>'참가(join)' = 參加?</t>
+          <t>'현실(reality)' = 現實?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1928,37 +1928,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>現實</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 勢務?</t>
+          <t>'보고(report)' = 報告?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
+          <t>'교양(cure)' = 敎養?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>敎養</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 逃走?</t>
+          <t>'안정(stability)' = 安定?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>安定</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>'도발' = 挑發?</t>
+          <t>'간여' = 干與?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2018,7 +2018,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>'위축(atrophy)' = 萎縮?</t>
+          <t>'간호(nurse)' = 看護?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2028,27 +2028,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>萎縮</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>'간섭' = 看涉?</t>
+          <t>'지지(support)' = 支持?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>支持</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>'정파' = 政派?</t>
+          <t>'서약(vow)' = 序約?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>誓約</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2078,7 +2078,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 有利?</t>
+          <t>'학문(knowledge)' = 學問?</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>學問</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2098,7 +2098,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'안정(stability)' = 安定?</t>
+          <t>'도피(escape)' = 逃避?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2108,17 +2108,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>安定</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 逃避?</t>
+          <t>'약간(slightly)' = 若干?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>若干</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2138,47 +2138,47 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 正義?</t>
+          <t>'도피(escape)' = 挑避?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>逃避</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 儒棄?</t>
+          <t>'혈세' = 血洗?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>血洗</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 構造?</t>
+          <t>'세력(power)' = 勢力?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2188,37 +2188,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>'알현(audience)' = 謁見?</t>
+          <t>'화폐(currency)' = 話幣?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>貨幣</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>'격언(motto)' = 格言?</t>
+          <t>'참견(see)' = 參見?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>格言</t>
+          <t>參見</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2238,27 +2238,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 統貨?</t>
+          <t>'급여(give)' = 給與?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>給與</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 誓約?</t>
+          <t>'유산(heritage)' = 遺産?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2268,17 +2268,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>'공동(common)' = 共同?</t>
+          <t>'간섭' = 干涉?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2288,17 +2288,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 干拓?</t>
+          <t>'서약(vow)' = 誓約?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>誓約</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2318,27 +2318,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 若干?</t>
+          <t>'정치(politics)' = 正治?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>政治</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'방자' = 放恣?</t>
+          <t>'활로(live)' = 活路?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2348,37 +2348,37 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>放恣</t>
+          <t>活路</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'포기(abandon)' = 抛棄?</t>
+          <t>'유기(abandon)' = 儒棄?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 統話?</t>
+          <t>'서막(prelude)' = 誓幕?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2388,27 +2388,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 通貨?</t>
+          <t>'도주(escape)' = 挑走?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>逃走</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2418,7 +2418,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 貨合?</t>
+          <t>'유기(abandon)' = 有棄?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2438,27 +2438,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 有産?</t>
+          <t>'통화(currency)' = 通貨?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>通貨</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>'비견(shoulder)' = 悲肩?</t>
+          <t>'서언(oath)' = 序言?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>比肩</t>
+          <t>誓言</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 仔態?</t>
+          <t>'도망(escape)' = 挑亡?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2488,57 +2488,57 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>逃亡</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>'언론(remark)' = 言論?</t>
+          <t>'세무(tax)' = 勢務?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>言論</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>'동화' = 同話?</t>
+          <t>'상감(inlaid)' = 象嵌?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>象嵌</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>'괴한(blame)' = 怪漢?</t>
+          <t>'침체(depression)' = 沈滯?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2548,17 +2548,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>沈滯</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>'선거(election)' = 善擧?</t>
+          <t>'유리(favorable)' = 儒利?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2578,17 +2578,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 話物?</t>
+          <t>'남용(abuse)' = 濫用?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>濫用</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2598,37 +2598,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>'공공(public)' = 公共?</t>
+          <t>'유언(will)' = 儒言?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 斷定?</t>
+          <t>'간섭' = 看涉?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>'현상(phenomenon)' = 現象?</t>
+          <t>'첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)' = 捷徑?</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2648,27 +2648,27 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>現象</t>
+          <t>捷徑</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 貨解?</t>
+          <t>'언약(appointment)' = 言約?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>言約</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>'참견(see)' = 參見?</t>
+          <t>'공공(public)' = 公共?</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2688,27 +2688,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>公共</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 回避?</t>
+          <t>'방역' = 放疫?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>防疫</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2718,17 +2718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 看護?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2738,17 +2738,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>'곡절(tortuous)' = 曲折?</t>
+          <t>'공감(sympathy)' = 公感?</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>共感</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2758,7 +2758,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 和睦?</t>
+          <t>'조작(construction)' = 造作?</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>造作</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 稅務?</t>
+          <t>'발각(find)' = 發覺?</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>發覺</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2798,7 +2798,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>'흉조(fierce)' = 凶兆?</t>
+          <t>'지급(provision)' = 支給?</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2808,67 +2808,67 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>凶兆</t>
+          <t>支給</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>'맹방(allies)' = 盟邦?</t>
+          <t>'세금(tax)' = 勢金?</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>盟邦</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 話合?</t>
+          <t>'선택(choose)' = 選擇?</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>選擇</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 儒憾?</t>
+          <t>'부활(revival)' = 復活?</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>復活</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2878,7 +2878,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>'유언(will)' = 遺言?</t>
+          <t>'포기(abandon)' = 抛棄?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>抛棄</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2898,47 +2898,47 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>'이론(theory)' = 理論?</t>
+          <t>'선거(election)' = 善擧?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>選擧</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>'공감(sympathy)' = 共感?</t>
+          <t>'간척(reclamation)' = 看拓?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>共感</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>'화두(words)' = 和頭?</t>
+          <t>'유교(conf)' = 有敎?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2948,37 +2948,37 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>'재화(money)' = 財貨?</t>
+          <t>'보고(report)' = 補告?</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>財貨</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 和合?</t>
+          <t>'묵념(silent)' = 默念?</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>默念</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2998,7 +2998,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 敎養?</t>
+          <t>'서언(oath)' = 誓言?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>誓言</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3018,47 +3018,47 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 干髮?</t>
+          <t>'곡절(tortuous)' = 曲折?</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>間髮</t>
+          <t>曲折</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>'현실(reality)' = 現實?</t>
+          <t>'선수(player)' = 善手?</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>選手</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>'방역' = 防疫?</t>
+          <t>'유언(will)' = 遺言?</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>防疫</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3078,7 +3078,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 勢金?</t>
+          <t>'공공(public)' = 共共?</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3088,37 +3088,37 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>公共</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>'충분(full)' = 充分?</t>
+          <t>'간호(nurse)' = 干護?</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>充分</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>'화두(words)' = 話頭?</t>
+          <t>'회피(avoidance)' = 回避?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3128,27 +3128,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>回避</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>'선수(player)' = 選手?</t>
+          <t>'정의(justice)' = 政義?</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>正義</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3158,7 +3158,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 補板?</t>
+          <t>'화합(harmony)' = 和合?</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3168,37 +3168,37 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 儒失?</t>
+          <t>'침묵(silence)' = 沈默?</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>沈默</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 序言?</t>
+          <t>'도발' = 逃發?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3208,17 +3208,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>'규정(regulation)' = 規定?</t>
+          <t>'유감(pity)' = 遺憾?</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>規定</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3238,7 +3238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>'공동(common)' = 公同?</t>
+          <t>'간여' = 看與?</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>共同</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3258,47 +3258,47 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 挑避?</t>
+          <t>'도발' = 挑發?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>挑發</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>'간섭' = 間涉?</t>
+          <t>'현상(phenomenon)' = 現象?</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>現象</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>'유언(will)' = 有言?</t>
+          <t>'선정' = 選政?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>善政</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3318,7 +3318,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>'간만(full)' = 干滿?</t>
+          <t>'내과' = 內科?</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>內科</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>'사건(event)' = 事件?</t>
+          <t>'맹방(allies)' = 盟邦?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3348,57 +3348,57 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>事件</t>
+          <t>盟邦</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>'침묵(silence)' = 沈默?</t>
+          <t>'비견(shoulder)' = 悲肩?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>沈默</t>
+          <t>比肩</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>'선정' = 選政?</t>
+          <t>'초유(first)' = 初有?</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>初有</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 斷緖?</t>
+          <t>'공동(common)' = 公同?</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>共同</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>'맹세(oath)' = 盟誓?</t>
+          <t>'비견(shoulder)' = 比肩?</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3428,17 +3428,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>盟誓</t>
+          <t>比肩</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>'선거(election)' = 選擧?</t>
+          <t>'비탄(grief)' = 悲嘆?</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3448,37 +3448,37 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>選擧</t>
+          <t>悲嘆</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>'차치(put)' = 且置?</t>
+          <t>'방자' = 防恣?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>且置</t>
+          <t>放恣</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 構現?</t>
+          <t>'단정(determine)' = 端定?</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>斷定</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3498,7 +3498,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>'시선(vision)' = 視線?</t>
+          <t>'유실(lose)' = 遺失?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3508,47 +3508,47 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 儒敎?</t>
+          <t>'화물(goods)' = 話物?</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>'강도(strength)' = 強度?</t>
+          <t>'유리(favorable)' = 遺利?</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,17 +3558,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>'대화(dialogue)' = 對話?</t>
+          <t>'화목(harmony)' = 貨睦?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>對話</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3578,7 +3578,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>'견문(knowledge)' = 見聞?</t>
+          <t>'세무(tax)' = 稅務?</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3598,7 +3598,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>'야박(scorpion)' = 野薄?</t>
+          <t>'선정' = 善政?</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3608,17 +3608,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>善政</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 間髮?</t>
+          <t>'화물(goods)' = 貨物?</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3628,17 +3628,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>間髮</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>'간여' = 間與?</t>
+          <t>'유교(conf)' = 遺敎?</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 貨睦?</t>
+          <t>'통화(currency)' = 統貨?</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3668,11 +3668,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>通貨</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 遺産?</t>
+          <t>'채용(use)' = 採用?</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>採用</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3718,17 +3718,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 仔細?</t>
+          <t>'간척(reclamation)' = 間拓?</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3738,7 +3738,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>'내과' = 內科?</t>
+          <t>'위축(atrophy)' = 萎縮?</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3748,37 +3748,37 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>萎縮</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>'투기(dumping)' = 投棄?</t>
+          <t>'간만(full)' = 看滿?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>'매목' = 埋木?</t>
+          <t>'단서(ductive)' = 端緖?</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3798,7 +3798,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'창제(creation)' = 創製?</t>
+          <t>'한자' = 漢字?</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3808,37 +3808,37 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>漢字</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 序幕?</t>
+          <t>'화물(goods)' = 和物?</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>貨物</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>'유언(will)' = 儒言?</t>
+          <t>'유언(will)' = 有言?</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3858,27 +3858,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 和物?</t>
+          <t>'언론(remark)' = 言論?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>言論</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>'전선(front)' = 戰線?</t>
+          <t>'입원(hospitalization)' = 入院?</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3888,57 +3888,57 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>入院</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>'활로(live)' = 活路?</t>
+          <t>'간만(full)' = 間滿?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>活路</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 有敎?</t>
+          <t>'구조(structure)' = 構造?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>構造</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 政直?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3948,17 +3948,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>通話</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 逃亡?</t>
+          <t>'화목(harmony)' = 和睦?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3968,17 +3968,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>'구현(embodiment)' = 具現?</t>
+          <t>'견문(knowledge)' = 見聞?</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3988,27 +3988,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>'정부(government)' = 政府?</t>
+          <t>'정직(honest)' = 政直?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>正直</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4018,7 +4018,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>'지지(support)' = 支持?</t>
+          <t>'공동(common)' = 共同?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4028,37 +4028,37 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>共同</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 有憾?</t>
+          <t>'방자' = 放恣?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>放恣</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>'노선(route)' = 路線?</t>
+          <t>'훼손(damage)' = 毁損?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>毁損</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4078,7 +4078,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>'훼손(damage)' = 毁損?</t>
+          <t>'정부(government)' = 政府?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>政府</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4098,7 +4098,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>'언약(appointment)' = 言約?</t>
+          <t>'차치(put)' = 且置?</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>言約</t>
+          <t>且置</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>'공공(public)' = 共共?</t>
+          <t>'정부(government)' = 正府?</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>公共</t>
+          <t>政府</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4138,17 +4138,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 基盤?</t>
+          <t>'화두(words)' = 和頭?</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4158,7 +4158,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>'한문(chinese)' = 漢文?</t>
+          <t>'동맹(alliance)' = 同盟?</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>同盟</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4178,7 +4178,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>'동화' = 童話?</t>
+          <t>'직경(diameter)' = 直徑?</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4188,67 +4188,67 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>直徑</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>'정부(government)' = 正府?</t>
+          <t>'투기(dumping)' = 投棄?</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>投棄</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>'방자' = 防恣?</t>
+          <t>'선수(player)' = 選手?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>放恣</t>
+          <t>選手</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 有棄?</t>
+          <t>'괴한(blame)' = 怪漢?</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>怪漢</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4258,27 +4258,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 挑走?</t>
+          <t>'귀중(you)' = 貴中?</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>貴中</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 間拓?</t>
+          <t>'선택(choose)' = 善擇?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4288,17 +4288,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>選擇</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>'입원(hospitalization)' = 入院?</t>
+          <t>'투고(posting)' = 投稿?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4308,57 +4308,57 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>投稿</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>'묵살(kill)' = 默殺?</t>
+          <t>'간여' = 間與?</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>默殺</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 話解?</t>
+          <t>'사건(event)' = 事件?</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>事件</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 干護?</t>
+          <t>'도전(challenge)' = 逃戰?</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>挑戰</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4378,17 +4378,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 話睦?</t>
+          <t>'근성(guts)' = 根性?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>根性</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4398,27 +4398,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 遺敎?</t>
+          <t>'화음(chord)' = 和音?</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>'망조(omen)' = 亡兆?</t>
+          <t>'노선(route)' = 路線?</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>亡兆</t>
+          <t>路線</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4438,37 +4438,37 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>'침체(depression)' = 沈滯?</t>
+          <t>'화제(topic)' = 貨題?</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>沈滯</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 誓幕?</t>
+          <t>'방역' = 防疫?</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>防疫</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4478,7 +4478,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 象嵌?</t>
+          <t>'구현(embodiment)' = 具現?</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4488,17 +4488,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>象嵌</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>'활력(vitality)' = 活力?</t>
+          <t>'행간' = 行間?</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4508,17 +4508,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>活力</t>
+          <t>行間</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>'유리(favorable)' = 遺利?</t>
+          <t>'유실(lose)' = 有失?</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4538,7 +4538,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 遺失?</t>
+          <t>'유리(favorable)' = 有利?</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4548,22 +4548,22 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 正治?</t>
+          <t>'정치(politics)' = 政治?</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 姿態?</t>
+          <t>'화제(topic)' = 話題?</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4588,27 +4588,27 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>話題</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>'묵인(default)' = 默認?</t>
+          <t>'간발(interim)' = 看髮?</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>默認</t>
+          <t>間髮</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4618,7 +4618,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>'조작(construction)' = 造作?</t>
+          <t>'화두(words)' = 話頭?</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>造作</t>
+          <t>話頭</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>'비탄(grief)' = 比嘆?</t>
+          <t>'자세(carefulness)' = 姿細?</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4648,17 +4648,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>仔細</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'맹세(oath)' = 盟誓?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4668,17 +4668,17 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>盟誓</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 貨物?</t>
+          <t>'참석' = 參席?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4688,37 +4688,37 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>參席</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>'선수(player)' = 善手?</t>
+          <t>'전선(front)' = 戰線?</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>選手</t>
+          <t>戰線</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 遺棄?</t>
+          <t>'한문(chinese)' = 漢文?</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>漢文</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4738,27 +4738,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 端定?</t>
+          <t>'유교(conf)' = 儒敎?</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>'근절(eradication)' = 根絶?</t>
+          <t>'통제(control)' = 統制?</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4768,17 +4768,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>'지급(provision)' = 支給?</t>
+          <t>'활력(vitality)' = 活力?</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>支給</t>
+          <t>活力</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4798,7 +4798,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>'세력(power)' = 勢力?</t>
+          <t>'격언(motto)' = 格言?</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4808,27 +4808,27 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>格言</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 話題?</t>
+          <t>'유산(heritage)' = 儒産?</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4838,7 +4838,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 看髮?</t>
+          <t>'간발(interim)' = 干髮?</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4852,38 +4852,38 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 貨題?</t>
+          <t>'권세(power)' = 權勢?</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>'정파' = 正派?</t>
+          <t>'정파' = 政派?</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4892,63 +4892,63 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 誓言?</t>
+          <t>'유감(pity)' = 儒憾?</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>遺憾</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 和幣?</t>
+          <t>'근절(eradication)' = 根絶?</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>根絶</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>'간만(full)' = 看滿?</t>
+          <t>'묵인(default)' = 默認?</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>默認</t>
         </is>
       </c>
       <c r="D226" t="n">

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'내과' = 內科?</t>
+          <t>'간호(nurse)' = 看護?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>看護</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 看護?</t>
+          <t>'간호(nurse)' = 干護?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 干護?</t>
+          <t>'간호(nurse)' = 間護?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>'간호(nurse)' = 間護?</t>
+          <t>'보고(report)' = 報告?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>報告</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>'입원(hospitalization)' = 入院?</t>
+          <t>'보고(report)' = 補告?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>報告</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>'보고(report)' = 報告?</t>
+          <t>'서막(prelude)' = 序幕?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>序幕</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>'보고(report)' = 補告?</t>
+          <t>'서막(prelude)' = 誓幕?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>序幕</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>'곡절(tortuous)' = 曲折?</t>
+          <t>'교양(cure)' = 敎養?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>敎養</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>'초유(first)' = 初有?</t>
+          <t>'교양(cure)' = 矯養?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>敎養</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 序幕?</t>
+          <t>'교양(cure)' = 校養?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>敎養</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>'서막(prelude)' = 誓幕?</t>
+          <t>'유교(conf)' = 儒敎?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 敎養?</t>
+          <t>'유교(conf)' = 遺敎?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 矯養?</t>
+          <t>'유교(conf)' = 有敎?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>'교양(cure)' = 校養?</t>
+          <t>'유교(conf)' = 遊敎?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>'이론(theory)' = 理論?</t>
+          <t>'유교(conf)' = 誘敎?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>儒敎</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 儒敎?</t>
+          <t>'수용(acceptance)' = 受容?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>受容</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 遺敎?</t>
+          <t>'수용(acceptance)' = 收容?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>受容</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>'유교(conf)' = 有敎?</t>
+          <t>'수용(acceptance)' = 搜容?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>受容</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>'학문(knowledge)' = 學問?</t>
+          <t>'귀중(you)' = 貴中?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>貴中</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 受容?</t>
+          <t>'귀천(expensive)' = 貴賤?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>貴賤</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'수용(acceptance)' = 收容?</t>
+          <t>'유산(heritage)' = 儒産?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>遺産</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>'귀중(you)' = 貴中?</t>
+          <t>'유산(heritage)' = 遺産?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>遺産</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>'귀천(expensive)' = 貴賤?</t>
+          <t>'유산(heritage)' = 有産?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>遺産</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 儒産?</t>
+          <t>'유산(heritage)' = 遊産?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 遺産?</t>
+          <t>'유산(heritage)' = 誘産?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>'유산(heritage)' = 有産?</t>
+          <t>'유언(will)' = 儒言?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>遺言</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>'유언(will)' = 儒言?</t>
+          <t>'유언(will)' = 遺言?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>'유언(will)' = 遺言?</t>
+          <t>'유언(will)' = 有言?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>'유언(will)' = 有言?</t>
+          <t>'유언(will)' = 遊言?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 儒失?</t>
+          <t>'유언(will)' = 誘言?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>遺言</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 遺失?</t>
+          <t>'유실(lose)' = 儒失?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>'유실(lose)' = 有失?</t>
+          <t>'유실(lose)' = 遺失?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 儒棄?</t>
+          <t>'유실(lose)' = 有失?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>遺失</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 遺棄?</t>
+          <t>'유실(lose)' = 遊失?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>遺失</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>'유기(abandon)' = 有棄?</t>
+          <t>'유실(lose)' = 誘失?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>遺失</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>'투고(posting)' = 投稿?</t>
+          <t>'유기(abandon)' = 儒棄?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>'투수(pitcher)' = 投手?</t>
+          <t>'유기(abandon)' = 遺棄?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>'투기(dumping)' = 投棄?</t>
+          <t>'유기(abandon)' = 有棄?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>'포기(abandon)' = 抛棄?</t>
+          <t>'유기(abandon)' = 遊棄?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>'노선(route)' = 路線?</t>
+          <t>'유기(abandon)' = 誘棄?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>遺棄</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>'노선(route)' = 老線?</t>
+          <t>'투고(posting)' = 投稿?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>投稿</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>'전선(front)' = 戰線?</t>
+          <t>'투수(pitcher)' = 投手?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>投手</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>'시선(vision)' = 視線?</t>
+          <t>'투기(dumping)' = 投棄?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>投棄</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>'근절(eradication)' = 根絶?</t>
+          <t>'노선(route)' = 路線?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>路線</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>'간섭' = 看涉?</t>
+          <t>'노선(route)' = 老線?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>路線</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>'간섭' = 干涉?</t>
+          <t>'시선(vision)' = 視線?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>視線</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>'간섭' = 間涉?</t>
+          <t>'근절(eradication)' = 根絶?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>根絶</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>'간여' = 看與?</t>
+          <t>'간섭' = 看涉?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>干涉</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>'간여' = 干與?</t>
+          <t>'간섭' = 干涉?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>干涉</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>'간여' = 間與?</t>
+          <t>'간섭' = 間涉?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>干涉</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 若干?</t>
+          <t>'간여' = 看與?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>'약간(slightly)' = 約干?</t>
+          <t>'간여' = 干與?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>'간만(full)' = 看滿?</t>
+          <t>'간여' = 間與?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>干與</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>'간만(full)' = 干滿?</t>
+          <t>'약간(slightly)' = 若干?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>若干</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>'간만(full)' = 間滿?</t>
+          <t>'약간(slightly)' = 約干?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>若干</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 看拓?</t>
+          <t>'간만(full)' = 看滿?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 干拓?</t>
+          <t>'간만(full)' = 干滿?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>'간척(reclamation)' = 間拓?</t>
+          <t>'간만(full)' = 間滿?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>干滿</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>'견습(appraise)' = 見習?</t>
+          <t>'간척(reclamation)' = 看拓?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>'견해(opinion)' = 見解?</t>
+          <t>'간척(reclamation)' = 干拓?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>'견문(knowledge)' = 見聞?</t>
+          <t>'간척(reclamation)' = 間拓?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>干拓</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>'알현(audience)' = 謁見?</t>
+          <t>'견습(appraise)' = 見習?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>見習</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>'참가(join)' = 參加?</t>
+          <t>'견해(opinion)' = 見解?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>見解</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>'참석' = 參席?</t>
+          <t>'견문(knowledge)' = 見聞?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>見聞</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>'참견(see)' = 參見?</t>
+          <t>'참가(join)' = 參加?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>參加</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>'참여(participate)' = 參與?</t>
+          <t>'참석' = 參席?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>參席</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>'경위' = 經緯?</t>
+          <t>'참견(see)' = 參見?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>參見</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 和睦?</t>
+          <t>'참여(participate)' = 參與?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>參與</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 話睦?</t>
+          <t>'경위' = 經緯?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>經緯</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>'화목(harmony)' = 貨睦?</t>
+          <t>'경위' = 更緯?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>經緯</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 和音?</t>
+          <t>'화목(harmony)' = 和睦?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 話音?</t>
+          <t>'화목(harmony)' = 話睦?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>'화음(chord)' = 貨音?</t>
+          <t>'화목(harmony)' = 貨睦?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>和睦</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 和解?</t>
+          <t>'화음(chord)' = 和音?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 話解?</t>
+          <t>'화음(chord)' = 話音?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>'화해(reconciliation)' = 貨解?</t>
+          <t>'화음(chord)' = 貨音?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>和音</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 和合?</t>
+          <t>'화해(reconciliation)' = 和解?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 話合?</t>
+          <t>'화해(reconciliation)' = 話解?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>'화합(harmony)' = 貨合?</t>
+          <t>'화해(reconciliation)' = 貨解?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>和解</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 稅金?</t>
+          <t>'화합(harmony)' = 和合?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>'세금(tax)' = 勢金?</t>
+          <t>'화합(harmony)' = 話合?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>'혈세' = 血稅?</t>
+          <t>'화합(harmony)' = 貨合?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>血稅</t>
+          <t>和合</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 稅務?</t>
+          <t>'세금(tax)' = 稅金?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>稅金</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>'세무(tax)' = 勢務?</t>
+          <t>'세금(tax)' = 勢金?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>稅金</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>'세력(power)' = 稅力?</t>
+          <t>'세무(tax)' = 稅務?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>稅務</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>'세력(power)' = 勢力?</t>
+          <t>'세무(tax)' = 勢務?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>稅務</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>'권세(power)' = 權勢?</t>
+          <t>'세력(power)' = 稅力?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>勢力</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>'경제(economy)' = 經濟?</t>
+          <t>'세력(power)' = 勢力?</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>勢力</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>'첩경(shortcut)' = 捷徑?</t>
+          <t>'경제(economy)' = 經濟?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>'경로(passage)' = 經路?</t>
+          <t>'경제(economy)' = 更濟?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>經濟</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>'직경(diameter)' = 直徑?</t>
+          <t>'경로(passage)' = 經路?</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>經路</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>'한문(chinese)' = 漢文?</t>
+          <t>'경로(passage)' = 更路?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>經路</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>'한자' = 漢字?</t>
+          <t>'한문(chinese)' = 漢文?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>漢文</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>'괴한(blame)' = 怪漢?</t>
+          <t>'한자' = 漢字?</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>漢字</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 基盤?</t>
+          <t>'비탄(grief)' = 否嘆?</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>悲嘆</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>'기반(basis)' = 機盤?</t>
+          <t>'기반(basis)' = 基盤?</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>'창제(creation)' = 創製?</t>
+          <t>'기반(basis)' = 機盤?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>基盤</t>
         </is>
       </c>
     </row>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>'강도(strength)' = 強度?</t>
+          <t>'유리(favorable)' = 遊利?</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>有利</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>'통제(control)' = 統制?</t>
+          <t>'유리(favorable)' = 誘利?</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>有利</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>'통제(control)' = 通制?</t>
+          <t>'강도(strength)' = 強度?</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>強度</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>'행간' = 行間?</t>
+          <t>'강도(strength)' = 講度?</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>強度</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 端緖?</t>
+          <t>'통제(control)' = 統制?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>統制</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>'단서(ductive)' = 斷緖?</t>
+          <t>'통제(control)' = 通制?</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>統制</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>'훼손(damage)' = 毁損?</t>
+          <t>'행간' = 行間?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>行間</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>'매목' = 埋木?</t>
+          <t>'단서(ductive)' = 端緖?</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>端緖</t>
         </is>
       </c>
     </row>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 象嵌?</t>
+          <t>'단서(ductive)' = 斷緖?</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>象嵌</t>
+          <t>端緖</t>
         </is>
       </c>
     </row>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 相嵌?</t>
+          <t>'상감(inlaid)' = 象嵌?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>'상감(inlaid)' = 常嵌?</t>
+          <t>'상감(inlaid)' = 相嵌?</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 報板?</t>
+          <t>'상감(inlaid)' = 常嵌?</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>象嵌</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2816,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>'보판(supplement)' = 補板?</t>
+          <t>'보판(supplement)' = 報板?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>'현실(reality)' = 現實?</t>
+          <t>'보판(supplement)' = 補板?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>補板</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>'야박(scorpion)' = 野薄?</t>
+          <t>'현실(reality)' = 現實?</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>現實</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>'채용(use)' = 採用?</t>
+          <t>'활력(vitality)' = 活力?</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>採用</t>
+          <t>活力</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>'활력(vitality)' = 活力?</t>
+          <t>'활로(live)' = 活路?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>活力</t>
+          <t>活路</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>'활로(live)' = 活路?</t>
+          <t>'부활(resurrection)' = 復活?</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>活路</t>
+          <t>復活</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>'부활(resurrection)' = 復活?</t>
+          <t>'부활(resurrection)' = 浮活?</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>'부활(resurrection)' = 浮活?</t>
+          <t>'부활(resurrection)' = 負活?</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>'부활(resurrection)' = 負活?</t>
+          <t>'부활(resurrection)' = 否活?</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>'대화(dialogue)' = 對話?</t>
+          <t>'부활(resurrection)' = 不活?</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>對話</t>
+          <t>復活</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>'대화(dialogue)' = 大話?</t>
+          <t>'대화(dialogue)' = 對話?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>'동화' = 童話?</t>
+          <t>'대화(dialogue)' = 大話?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>童話</t>
+          <t>對話</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>'동화' = 同話?</t>
+          <t>'동화' = 童話?</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>'실화(truth)' = 實話?</t>
+          <t>'동화' = 同話?</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>實話</t>
+          <t>童話</t>
         </is>
       </c>
     </row>
@@ -3456,17 +3456,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>'격언(motto)' = 格言?</t>
+          <t>'화두(words)' = 和頭?</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>格言</t>
+          <t>話頭</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>'화두(words)' = 和頭?</t>
+          <t>'화두(words)' = 話頭?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>'화두(words)' = 話頭?</t>
+          <t>'화두(words)' = 貨頭?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>'화두(words)' = 貨頭?</t>
+          <t>'통화(calling)' = 統話?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>話頭</t>
+          <t>通話</t>
         </is>
       </c>
     </row>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 統話?</t>
+          <t>'통화(calling)' = 通話?</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>'통화(calling)' = 通話?</t>
+          <t>'화제(topic)' = 和題?</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>通話</t>
+          <t>話題</t>
         </is>
       </c>
     </row>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 和題?</t>
+          <t>'화제(topic)' = 話題?</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3596,12 +3596,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 話題?</t>
+          <t>'화제(topic)' = 貨題?</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>'화제(topic)' = 貨題?</t>
+          <t>'통화(currency)' = 統貨?</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>話題</t>
+          <t>通貨</t>
         </is>
       </c>
     </row>
@@ -3636,12 +3636,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 統貨?</t>
+          <t>'통화(currency)' = 通貨?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>'통화(currency)' = 通貨?</t>
+          <t>'재화(money)' = 財貨?</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>通貨</t>
+          <t>財貨</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>'재화(money)' = 財貨?</t>
+          <t>'재화(money)' = 再貨?</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>'재화(money)' = 再貨?</t>
+          <t>'화폐(currency)' = 和幣?</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>財貨</t>
+          <t>貨幣</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 和幣?</t>
+          <t>'화폐(currency)' = 話幣?</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 話幣?</t>
+          <t>'화폐(currency)' = 貨幣?</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>'화폐(currency)' = 貨幣?</t>
+          <t>'화물(goods)' = 和物?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>貨幣</t>
+          <t>貨物</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 和物?</t>
+          <t>'화물(goods)' = 話物?</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 話物?</t>
+          <t>'화물(goods)' = 貨物?</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>'화물(goods)' = 貨物?</t>
+          <t>'정의(justice)' = 正義?</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>貨物</t>
+          <t>正義</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 正義?</t>
+          <t>'정의(justice)' = 政義?</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3856,17 +3856,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>'정의(justice)' = 政義?</t>
+          <t>'정직(honest)' = 正直?</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>正義</t>
+          <t>正直</t>
         </is>
       </c>
     </row>
@@ -3876,12 +3876,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 正直?</t>
+          <t>'정직(honest)' = 政直?</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>'정직(honest)' = 政直?</t>
+          <t>'정치(politics)' = 正治?</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>正直</t>
+          <t>政治</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 正治?</t>
+          <t>'정치(politics)' = 政治?</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>'정치(politics)' = 政治?</t>
+          <t>'정부(government)' = 正府?</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>政治</t>
+          <t>政府</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>'정부(government)' = 正府?</t>
+          <t>'정부(government)' = 政府?</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>'정부(government)' = 政府?</t>
+          <t>'정파' = 正派?</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>政府</t>
+          <t>政派</t>
         </is>
       </c>
     </row>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>'정파' = 正派?</t>
+          <t>'정파' = 政派?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>'정파' = 政派?</t>
+          <t>'선정' = 選政?</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>政派</t>
+          <t>善政</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>'선정' = 選政?</t>
+          <t>'선정' = 善政?</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>'선정' = 善政?</t>
+          <t>'선정' = 先政?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>'선정' = 先政?</t>
+          <t>'단정(determine)' = 端定?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>善政</t>
+          <t>斷定</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 端定?</t>
+          <t>'단정(determine)' = 斷定?</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>'단정(determine)' = 斷定?</t>
+          <t>'규정(regulation)' = 規定?</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>斷定</t>
+          <t>規定</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>'안정(stability)' = 安定?</t>
+          <t>'구조(structure)' = 具造?</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>安定</t>
+          <t>構造</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>'규정(regulation)' = 規定?</t>
+          <t>'구조(structure)' = 構造?</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>規定</t>
+          <t>構造</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 具造?</t>
+          <t>'구조(structure)' = 救造?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 構造?</t>
+          <t>'구조(structure)' = 區造?</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4216,17 +4216,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 救造?</t>
+          <t>'현상(phenomenon)' = 現象?</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>現象</t>
         </is>
       </c>
     </row>
@@ -4236,17 +4236,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>'구조(structure)' = 區造?</t>
+          <t>'조작(construction)' = 造作?</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>構造</t>
+          <t>造作</t>
         </is>
       </c>
     </row>
@@ -4256,17 +4256,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>'충분(full)' = 充分?</t>
+          <t>'조작(construction)' = 租作?</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>充分</t>
+          <t>造作</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>'현상(phenomenon)' = 現象?</t>
+          <t>'사건(event)' = 事件?</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>現象</t>
+          <t>事件</t>
         </is>
       </c>
     </row>
@@ -4296,17 +4296,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>'조작(construction)' = 造作?</t>
+          <t>'사건(event)' = 思件?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>造作</t>
+          <t>事件</t>
         </is>
       </c>
     </row>
@@ -4316,17 +4316,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>'발각(find)' = 發覺?</t>
+          <t>'사건(event)' = 社件?</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>發覺</t>
+          <t>事件</t>
         </is>
       </c>
     </row>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>'남용(abuse)' = 濫用?</t>
+          <t>'유감(pity)' = 儒憾?</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>濫用</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>'사건(event)' = 事件?</t>
+          <t>'유감(pity)' = 有憾?</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>事件</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -4376,17 +4376,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>'사건(event)' = 思件?</t>
+          <t>'유감(pity)' = 遺憾?</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>事件</t>
+          <t>遺憾</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 儒憾?</t>
+          <t>'유감(pity)' = 遊憾?</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 有憾?</t>
+          <t>'유감(pity)' = 誘憾?</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>'유감(pity)' = 遺憾?</t>
+          <t>'도발' = 挑發?</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>遺憾</t>
+          <t>挑發</t>
         </is>
       </c>
     </row>
@@ -4456,17 +4456,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>'길조' = 吉兆?</t>
+          <t>'도발' = 逃發?</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>吉兆</t>
+          <t>挑發</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>'흉조(fierce)' = 凶兆?</t>
+          <t>'도전(challenge)' = 挑戰?</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>凶兆</t>
+          <t>挑戰</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>'망조(omen)' = 亡兆?</t>
+          <t>'도전(challenge)' = 逃戰?</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>亡兆</t>
+          <t>挑戰</t>
         </is>
       </c>
     </row>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>'도발' = 挑發?</t>
+          <t>'도망(escape)' = 挑亡?</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>逃亡</t>
         </is>
       </c>
     </row>
@@ -4536,17 +4536,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>'도발' = 逃發?</t>
+          <t>'도망(escape)' = 逃亡?</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>挑發</t>
+          <t>逃亡</t>
         </is>
       </c>
     </row>
@@ -4556,17 +4556,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 挑戰?</t>
+          <t>'도주(escape)' = 挑走?</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>逃走</t>
         </is>
       </c>
     </row>
@@ -4576,17 +4576,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>'도전(challenge)' = 逃戰?</t>
+          <t>'도주(escape)' = 逃走?</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>挑戰</t>
+          <t>逃走</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 挑亡?</t>
+          <t>'도피(escape)' = 挑避?</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>逃避</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>'도망(escape)' = 逃亡?</t>
+          <t>'도피(escape)' = 逃避?</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>逃亡</t>
+          <t>逃避</t>
         </is>
       </c>
     </row>
@@ -4636,17 +4636,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 挑走?</t>
+          <t>'회피(avoidance)' = 回避?</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>回避</t>
         </is>
       </c>
     </row>
@@ -4656,17 +4656,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>'도주(escape)' = 逃走?</t>
+          <t>'회피(avoidance)' = 懷避?</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>逃走</t>
+          <t>回避</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 挑避?</t>
+          <t>'회피(avoidance)' = 會避?</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>回避</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>'도피(escape)' = 逃避?</t>
+          <t>'지지(support)' = 支持?</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>逃避</t>
+          <t>支持</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 回避?</t>
+          <t>'지배(rule)' = 支配?</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>支配</t>
         </is>
       </c>
     </row>
@@ -4736,17 +4736,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 懷避?</t>
+          <t>'지급(supply)' = 支給?</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>支給</t>
         </is>
       </c>
     </row>
@@ -4756,17 +4756,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>'회피(avoidance)' = 會避?</t>
+          <t>'침묵(silence)' = 沈默?</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>回避</t>
+          <t>沈默</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>'지지(support)' = 支持?</t>
+          <t>'묵인(default)' = 默認?</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>默認</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>'지배(rule)' = 支配?</t>
+          <t>'묵살(kill)' = 默殺?</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>支配</t>
+          <t>默殺</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>'지급(supply)' = 支給?</t>
+          <t>'묵념(silent)' = 默念?</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>支給</t>
+          <t>默念</t>
         </is>
       </c>
     </row>
@@ -4836,17 +4836,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>'급여(give)' = 給與?</t>
+          <t>'동맹(alliance)' = 童盟?</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>給與</t>
+          <t>同盟</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>'침묵(silence)' = 沈默?</t>
+          <t>'동맹(alliance)' = 同盟?</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>沈默</t>
+          <t>同盟</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>'묵인(default)' = 默認?</t>
+          <t>'맹세(oath)' = 盟誓?</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>默認</t>
+          <t>盟誓</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>'묵살(kill)' = 默殺?</t>
+          <t>'맹방(allies)' = 盟邦?</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>默殺</t>
+          <t>盟邦</t>
         </is>
       </c>
     </row>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>'묵념(silent)' = 默念?</t>
+          <t>'서약(vow)' = 序約?</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>默念</t>
+          <t>誓約</t>
         </is>
       </c>
     </row>
@@ -4936,17 +4936,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 童盟?</t>
+          <t>'서약(vow)' = 誓約?</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>誓約</t>
         </is>
       </c>
     </row>
@@ -4956,17 +4956,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>'동맹(alliance)' = 同盟?</t>
+          <t>'서언(oath)' = 序言?</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>同盟</t>
+          <t>誓言</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>'맹세(oath)' = 盟誓?</t>
+          <t>'서언(oath)' = 誓言?</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>盟誓</t>
+          <t>誓言</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>'맹방(allies)' = 盟邦?</t>
+          <t>'방자' = 放恣?</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>盟邦</t>
+          <t>放恣</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 序約?</t>
+          <t>'방자' = 防恣?</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>放恣</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>'서약(vow)' = 誓約?</t>
+          <t>'자세(carefulness)' = 仔細?</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>誓約</t>
+          <t>仔細</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 序言?</t>
+          <t>'자세(carefulness)' = 姿細?</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>仔細</t>
         </is>
       </c>
     </row>
@@ -5076,17 +5076,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>'서언(oath)' = 誓言?</t>
+          <t>'자세(carefulness)' = 子細?</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>誓言</t>
+          <t>仔細</t>
         </is>
       </c>
     </row>
@@ -5096,17 +5096,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>'방자' = 放恣?</t>
+          <t>'자세(carefulness)' = 自細?</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>放恣</t>
+          <t>仔細</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>'방자' = 防恣?</t>
+          <t>'자태(attitude)' = 仔態?</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>放恣</t>
+          <t>姿態</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 仔細?</t>
+          <t>'자태(attitude)' = 姿態?</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>姿態</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 姿細?</t>
+          <t>'자태(attitude)' = 子態?</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>姿態</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 子細?</t>
+          <t>'자태(attitude)' = 自態?</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>姿態</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>'자세(carefulness)' = 自細?</t>
+          <t>'간발(interim)' = 看髮?</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>仔細</t>
+          <t>間髮</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 仔態?</t>
+          <t>'간발(interim)' = 干髮?</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>間髮</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 姿態?</t>
+          <t>'간발(interim)' = 間髮?</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>間髮</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 子態?</t>
+          <t>'비견(shoulder)' = 悲肩?</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>比肩</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>'자태(attitude)' = 自態?</t>
+          <t>'비견(shoulder)' = 比肩?</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>姿態</t>
+          <t>比肩</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 看髮?</t>
+          <t>'비견(shoulder)' = 否肩?</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>間髮</t>
+          <t>比肩</t>
         </is>
       </c>
     </row>
@@ -5316,17 +5316,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 干髮?</t>
+          <t>'침체(depression)' = 沈滯?</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>間髮</t>
+          <t>沈滯</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>'간발(interim)' = 間髮?</t>
+          <t>'위축(atrophy)' = 萎縮?</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>間髮</t>
+          <t>萎縮</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>'비견(shoulder)' = 悲肩?</t>
+          <t>'위축(atrophy)' = 危縮?</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>比肩</t>
+          <t>萎縮</t>
         </is>
       </c>
     </row>
@@ -5376,17 +5376,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>'비견(shoulder)' = 比肩?</t>
+          <t>'방역' = 放疫?</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>比肩</t>
+          <t>防疫</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>'침체(depression)' = 沈滯?</t>
+          <t>'방역' = 防疫?</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>沈滯</t>
+          <t>防疫</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>'위축(atrophy)' = 萎縮?</t>
+          <t>'정부' = 政否?</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>萎縮</t>
+          <t>正否</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>'차치(put)' = 且置?</t>
+          <t>'정부' = 正否?</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>且置</t>
+          <t>正否</t>
         </is>
       </c>
     </row>
@@ -5456,17 +5456,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>'방역' = 放疫?</t>
+          <t>'규칙(rule)' = 規則?</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>防疫</t>
+          <t>規則</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>'방역' = 防疫?</t>
+          <t>'일정(must)' = 一定?</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>防疫</t>
+          <t>一定</t>
         </is>
       </c>
     </row>
@@ -5496,17 +5496,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>'정부' = 政否?</t>
+          <t>'행위(pursuit)' = 行爲?</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>正否</t>
+          <t>行爲</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5516,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>'정부' = 正否?</t>
+          <t>'약속(promise)' = 若束?</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>正否</t>
+          <t>約束</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>'규칙(rule)' = 規則?</t>
+          <t>'약속(promise)' = 約束?</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>規則</t>
+          <t>約束</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>'일정(must)' = 一定?</t>
+          <t>'맹약(appointment)' = 盟約?</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>一定</t>
+          <t>盟約</t>
         </is>
       </c>
     </row>
@@ -5576,17 +5576,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>'출급' = 出給?</t>
+          <t>'구조(rescue)' = 具助?</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>出給</t>
+          <t>救助</t>
         </is>
       </c>
     </row>
@@ -5596,17 +5596,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>'행위(pursuit)' = 行爲?</t>
+          <t>'구조(rescue)' = 構助?</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>行爲</t>
+          <t>救助</t>
         </is>
       </c>
     </row>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>'약속(promise)' = 若束?</t>
+          <t>'구조(rescue)' = 救助?</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>約束</t>
+          <t>救助</t>
         </is>
       </c>
     </row>
@@ -5636,17 +5636,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>'약속(promise)' = 約束?</t>
+          <t>'구조(rescue)' = 區助?</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>約束</t>
+          <t>救助</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>'맹약(appointment)' = 盟約?</t>
+          <t>'일관(consistency)' = 一貫?</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>盟約</t>
+          <t>一貫</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>'구조(rescue)' = 具助?</t>
+          <t>'자손(descendants)' = 仔孫?</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>子孫</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>'구조(rescue)' = 構助?</t>
+          <t>'자손(descendants)' = 姿孫?</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>子孫</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>'구조(rescue)' = 救助?</t>
+          <t>'자손(descendants)' = 子孫?</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>子孫</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>'구조(rescue)' = 區助?</t>
+          <t>'자손(descendants)' = 自孫?</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>救助</t>
+          <t>子孫</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>'일관(consistency)' = 一貫?</t>
+          <t>'인류(humanity)' = 人類?</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>一貫</t>
+          <t>人類</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>'자손(descendants)' = 仔孫?</t>
+          <t>'인류(humanity)' = 引類?</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>子孫</t>
+          <t>人類</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>'자손(descendants)' = 姿孫?</t>
+          <t>'대의(righteousness)' = 對義?</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>子孫</t>
+          <t>大義</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>'자손(descendants)' = 子孫?</t>
+          <t>'대의(righteousness)' = 大義?</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>子孫</t>
+          <t>大義</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>'자손(descendants)' = 自孫?</t>
+          <t>'자존' = 仔存?</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>子孫</t>
+          <t>自存</t>
         </is>
       </c>
     </row>
@@ -5856,17 +5856,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>'광고(advertise)' = 廣告?</t>
+          <t>'자존' = 姿存?</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>廣告</t>
+          <t>自存</t>
         </is>
       </c>
     </row>
@@ -5876,17 +5876,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>'만대(bandai)' = 萬代?</t>
+          <t>'자존' = 子存?</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>萬代</t>
+          <t>自存</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>'인류(humanity)' = 人類?</t>
+          <t>'자존' = 自存?</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>人類</t>
+          <t>自存</t>
         </is>
       </c>
     </row>
@@ -5916,17 +5916,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>'평등(equality)' = 平等?</t>
+          <t>'자존' = 仔尊?</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>平等</t>
+          <t>自尊</t>
         </is>
       </c>
     </row>
@@ -5936,17 +5936,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>'민족(nationality)' = 民族?</t>
+          <t>'자존' = 姿尊?</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>民族</t>
+          <t>自尊</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>'대의(righteousness)' = 對義?</t>
+          <t>'자존' = 子尊?</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>大義</t>
+          <t>自尊</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>'대의(righteousness)' = 大義?</t>
+          <t>'자존' = 自尊?</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>大義</t>
+          <t>自尊</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>'자존' = 仔存?</t>
+          <t>'정권' = 政權?</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>自存</t>
+          <t>正權</t>
         </is>
       </c>
     </row>
@@ -6016,17 +6016,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>'자존' = 姿存?</t>
+          <t>'정권' = 正權?</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>自存</t>
+          <t>正權</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>'자존' = 子存?</t>
+          <t>'정권(regime)' = 正權?</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>自存</t>
+          <t>政權</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>'자존' = 自存?</t>
+          <t>'정권(regime)' = 政權?</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>自存</t>
+          <t>政權</t>
         </is>
       </c>
     </row>
@@ -6076,17 +6076,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>'자존' = 仔尊?</t>
+          <t>'거부(rejection)' = 拒否?</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>自尊</t>
+          <t>拒否</t>
         </is>
       </c>
     </row>
@@ -6096,17 +6096,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>'자존' = 姿尊?</t>
+          <t>'거절(rejection)' = 拒絶?</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>自尊</t>
+          <t>拒絶</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>'자존' = 子尊?</t>
+          <t>'교정(correct)' = 敎正?</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>自尊</t>
+          <t>矯正</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>'자존' = 自尊?</t>
+          <t>'교정(correct)' = 矯正?</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>自尊</t>
+          <t>矯正</t>
         </is>
       </c>
     </row>
@@ -6156,17 +6156,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>'극명(pronunciation)' = 克明?</t>
+          <t>'교정(correct)' = 校正?</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>克明</t>
+          <t>矯正</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>'정권' = 政權?</t>
+          <t>'교정(revision)' = 敎訂?</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>正權</t>
+          <t>校訂</t>
         </is>
       </c>
     </row>
@@ -6196,17 +6196,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>'정권' = 正權?</t>
+          <t>'교정(revision)' = 矯訂?</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>正權</t>
+          <t>校訂</t>
         </is>
       </c>
     </row>
@@ -6216,17 +6216,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>'정권(regime)' = 正權?</t>
+          <t>'교정(revision)' = 校訂?</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>政權</t>
+          <t>校訂</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>'정권(regime)' = 政權?</t>
+          <t>'시각(perspective)' = 視角?</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>政權</t>
+          <t>視角</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>'영유(forever)' = 永有?</t>
+          <t>'살생(kill)' = 殺生?</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>永有</t>
+          <t>殺生</t>
         </is>
       </c>
     </row>
@@ -6276,17 +6276,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>'득실' = 得失?</t>
+          <t>'상쇄(offset)' = 象殺?</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>得失</t>
+          <t>相殺</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>'거부(rejection)' = 拒否?</t>
+          <t>'상쇄(offset)' = 相殺?</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>拒否</t>
+          <t>相殺</t>
         </is>
       </c>
     </row>
@@ -6316,17 +6316,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>'거절(rejection)' = 拒絶?</t>
+          <t>'상쇄(offset)' = 常殺?</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>拒絶</t>
+          <t>相殺</t>
         </is>
       </c>
     </row>
@@ -6336,17 +6336,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>'교정(correct)' = 敎正?</t>
+          <t>'살균(sterilize)' = 殺菌?</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>矯正</t>
+          <t>殺菌</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>'교정(correct)' = 矯正?</t>
+          <t>'응시(gaze)' = 凝視?</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>矯正</t>
+          <t>凝視</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>'교정(correct)' = 校正?</t>
+          <t>'응시(gaze)' = 鷹視?</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>矯正</t>
+          <t>凝視</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>'교정(revision)' = 敎訂?</t>
+          <t>'응시(hawking)' = 凝視?</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>校訂</t>
+          <t>鷹視</t>
         </is>
       </c>
     </row>
@@ -6416,17 +6416,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>'교정(revision)' = 矯訂?</t>
+          <t>'응시(hawking)' = 鷹視?</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>校訂</t>
+          <t>鷹視</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>'교정(revision)' = 校訂?</t>
+          <t>'여과(filtration)' = 濾過?</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>校訂</t>
+          <t>濾過</t>
         </is>
       </c>
     </row>
@@ -6456,17 +6456,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>'시각(perspective)' = 視角?</t>
+          <t>'여과(filtration)' = 勵過?</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>視角</t>
+          <t>濾過</t>
         </is>
       </c>
     </row>
@@ -6476,17 +6476,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>'각축(compete)' = 角逐?</t>
+          <t>'여과(filtration)' = 與過?</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>角逐</t>
+          <t>濾過</t>
         </is>
       </c>
     </row>
@@ -6496,17 +6496,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>'살생(kill)' = 殺生?</t>
+          <t>'여과(벼슬명)(deciduous)' = 濾果?</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>殺生</t>
+          <t>勵果</t>
         </is>
       </c>
     </row>
@@ -6516,17 +6516,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>'상쇄(offset)' = 象殺?</t>
+          <t>'여과(벼슬명)(deciduous)' = 勵果?</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>相殺</t>
+          <t>勵果</t>
         </is>
       </c>
     </row>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>'상쇄(offset)' = 相殺?</t>
+          <t>'여과(벼슬명)(deciduous)' = 與果?</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>相殺</t>
+          <t>勵果</t>
         </is>
       </c>
     </row>
@@ -6556,17 +6556,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>'상쇄(offset)' = 常殺?</t>
+          <t>'근본(fundamental)' = 根本?</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>相殺</t>
+          <t>根本</t>
         </is>
       </c>
     </row>
@@ -6576,17 +6576,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>'쇄도(flood)' = 殺到?</t>
+          <t>'기회(chance)' = 基會?</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>殺到</t>
+          <t>機會</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>'살균(sterilize)' = 殺菌?</t>
+          <t>'기회(chance)' = 機會?</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>殺菌</t>
+          <t>機會</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>'응시(gaze)' = 凝視?</t>
+          <t>'회의(suspect)' = 回疑?</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>凝視</t>
+          <t>懷疑</t>
         </is>
       </c>
     </row>
@@ -6636,17 +6636,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>'응시(gaze)' = 鷹視?</t>
+          <t>'회의(suspect)' = 懷疑?</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>凝視</t>
+          <t>懷疑</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>'응시(hawking)' = 凝視?</t>
+          <t>'회의(suspect)' = 會疑?</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>鷹視</t>
+          <t>懷疑</t>
         </is>
       </c>
     </row>
@@ -6676,17 +6676,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>'응시(hawking)' = 鷹視?</t>
+          <t>'회의(meeting)' = 回議?</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>鷹視</t>
+          <t>會議</t>
         </is>
       </c>
     </row>
@@ -6696,17 +6696,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>'여과(filtration)' = 濾過?</t>
+          <t>'회의(meeting)' = 懷議?</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>濾過</t>
+          <t>會議</t>
         </is>
       </c>
     </row>
@@ -6716,17 +6716,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>'여과(filtration)' = 勵過?</t>
+          <t>'회의(meeting)' = 會議?</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>濾過</t>
+          <t>會議</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>'여과(벼슬명)(deciduous)' = 濾果?</t>
+          <t>'공유(share)' = 公有?</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>勵果</t>
+          <t>共有</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>'여과(벼슬명)(deciduous)' = 勵果?</t>
+          <t>'공유(share)' = 共有?</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>勵果</t>
+          <t>共有</t>
         </is>
       </c>
     </row>
@@ -6776,17 +6776,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>'모순(contradiction)' = 矛盾?</t>
+          <t>'공유(public)' = 共有?</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>矛盾</t>
+          <t>公有</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>'본질(nature)' = 本質?</t>
+          <t>'공유(public)' = 公有?</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>本質</t>
+          <t>公有</t>
         </is>
       </c>
     </row>
@@ -6816,17 +6816,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>'갈등(conflict)' = 葛藤?</t>
+          <t>'구분(distinguish)' = 具分?</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>葛藤</t>
+          <t>區分</t>
         </is>
       </c>
     </row>
@@ -6836,17 +6836,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>'가상(imaginary)' = 假想?</t>
+          <t>'구분(distinguish)' = 構分?</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>假想</t>
+          <t>區分</t>
         </is>
       </c>
     </row>
@@ -6856,17 +6856,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>'근본(fundamental)' = 根本?</t>
+          <t>'구분(distinguish)' = 救分?</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>根本</t>
+          <t>區分</t>
         </is>
       </c>
     </row>
@@ -6876,17 +6876,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>'기회(chance)' = 基會?</t>
+          <t>'구분(distinguish)' = 區分?</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>機會</t>
+          <t>區分</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>'기회(chance)' = 機會?</t>
+          <t>'변명(discern)' = 辨明?</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>機會</t>
+          <t>辨明</t>
         </is>
       </c>
     </row>
@@ -6916,17 +6916,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>'역할(role)' = 役割?</t>
+          <t>'변명(discern)' = 變明?</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>役割</t>
+          <t>辨明</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>'회의(suspect)' = 回疑?</t>
+          <t>'재고(reconsideration)' = 財考?</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>懷疑</t>
+          <t>再考</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>'회의(suspect)' = 懷疑?</t>
+          <t>'재고(reconsideration)' = 再考?</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>懷疑</t>
+          <t>再考</t>
         </is>
       </c>
     </row>
@@ -6976,17 +6976,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>'회의(suspect)' = 會疑?</t>
+          <t>'운명(destiny)' = 運命?</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>懷疑</t>
+          <t>運命</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>'회의(meeting)' = 回議?</t>
+          <t>'운명(destiny)' = 殞命?</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>會議</t>
+          <t>運命</t>
         </is>
       </c>
     </row>
@@ -7016,17 +7016,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>'회의(meeting)' = 懷議?</t>
+          <t>'성실(honest)' = 誠實?</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>會議</t>
+          <t>誠實</t>
         </is>
       </c>
     </row>
@@ -7036,17 +7036,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>'회의(meeting)' = 會議?</t>
+          <t>'성실(honest)' = 成實?</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>會議</t>
+          <t>誠實</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>'공유(share)' = 公有?</t>
+          <t>'운명(die)' = 運命?</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>共有</t>
+          <t>殞命</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>'공유(share)' = 共有?</t>
+          <t>'운명(die)' = 殞命?</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>共有</t>
+          <t>殞命</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>'공유(public)' = 共有?</t>
+          <t>'성실(achievement)' = 誠實?</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>公有</t>
+          <t>成實</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>'공유(public)' = 公有?</t>
+          <t>'성실(achievement)' = 成實?</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>公有</t>
+          <t>成實</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>'구분(distinguish)' = 具分?</t>
+          <t>'선출(select)' = 善出?</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>區分</t>
+          <t>選出</t>
         </is>
       </c>
     </row>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>'구분(distinguish)' = 構分?</t>
+          <t>'선출(select)' = 選出?</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>區分</t>
+          <t>選出</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>'구분(distinguish)' = 救分?</t>
+          <t>'선출(select)' = 先出?</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>區分</t>
+          <t>選出</t>
         </is>
       </c>
     </row>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>'구분(distinguish)' = 區分?</t>
+          <t>'선출(first-out)' = 選出?</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>區分</t>
+          <t>先出</t>
         </is>
       </c>
     </row>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>'분류(classification)' = 分類?</t>
+          <t>'선출(first-out)' = 善出?</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>分類</t>
+          <t>先出</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>'변명(discern)' = 辨明?</t>
+          <t>'선출(first-out)' = 先出?</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>辨明</t>
+          <t>先出</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>'결재(decision)' = 決裁?</t>
+          <t>'규율(law)' = 規律?</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>決裁</t>
+          <t>規律</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>'재고(reconsideration)' = 財考?</t>
+          <t>'노쇠(aging)' = 路衰?</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>再考</t>
+          <t>老衰</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>'재고(reconsideration)' = 再考?</t>
+          <t>'노쇠(aging)' = 老衰?</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>再考</t>
+          <t>老衰</t>
         </is>
       </c>
     </row>
@@ -7316,17 +7316,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>'운명(destiny)' = 運命?</t>
+          <t>'부상(emerging)' = 復上?</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>運命</t>
+          <t>浮上</t>
         </is>
       </c>
     </row>
@@ -7336,17 +7336,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>'운명(destiny)' = 殞命?</t>
+          <t>'부상(emerging)' = 浮上?</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>運命</t>
+          <t>浮上</t>
         </is>
       </c>
     </row>
@@ -7356,17 +7356,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>'성실(honest)' = 誠實?</t>
+          <t>'부상(emerging)' = 負上?</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>誠實</t>
+          <t>浮上</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>'성실(honest)' = 成實?</t>
+          <t>'부상(emerging)' = 否上?</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>誠實</t>
+          <t>浮上</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>'운명(die)' = 運命?</t>
+          <t>'부상(emerging)' = 不上?</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>殞命</t>
+          <t>浮上</t>
         </is>
       </c>
     </row>
@@ -7416,17 +7416,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>'운명(die)' = 殞命?</t>
+          <t>'부상(injury)' = 復傷?</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>殞命</t>
+          <t>負傷</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>'성실(achievement)' = 誠實?</t>
+          <t>'부상(injury)' = 浮傷?</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>成實</t>
+          <t>負傷</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>'성실(achievement)' = 成實?</t>
+          <t>'부상(injury)' = 負傷?</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>成實</t>
+          <t>負傷</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>'선출(select)' = 善出?</t>
+          <t>'부상(injury)' = 否傷?</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>選出</t>
+          <t>負傷</t>
         </is>
       </c>
     </row>
@@ -7496,17 +7496,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>'선출(select)' = 選出?</t>
+          <t>'부상(injury)' = 不傷?</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>選出</t>
+          <t>負傷</t>
         </is>
       </c>
     </row>
@@ -7516,17 +7516,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>'선출(select)' = 先出?</t>
+          <t>'소원(wish)' = 所願?</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>選出</t>
+          <t>所願</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>'선출(first-out)' = 選出?</t>
+          <t>'소원(wish)' = 訴願?</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>先出</t>
+          <t>所願</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>'선출(first-out)' = 善出?</t>
+          <t>'소원' = 所願?</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>先出</t>
+          <t>訴願</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>'선출(first-out)' = 先出?</t>
+          <t>'소원' = 訴願?</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>先出</t>
+          <t>訴願</t>
         </is>
       </c>
     </row>
@@ -7596,17 +7596,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>'규율(law)' = 規律?</t>
+          <t>'상식' = 象識?</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>規律</t>
+          <t>常識</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>'노쇠(aging)' = 路衰?</t>
+          <t>'상식' = 相識?</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>老衰</t>
+          <t>常識</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>'노쇠(aging)' = 老衰?</t>
+          <t>'상식' = 常識?</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>老衰</t>
+          <t>常識</t>
         </is>
       </c>
     </row>
@@ -7656,17 +7656,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>'추대(push)' = 推戴?</t>
+          <t>'공리(axiom)' = 共理?</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>推戴</t>
+          <t>公理</t>
         </is>
       </c>
     </row>
@@ -7676,17 +7676,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>'부상(emerging)' = 復上?</t>
+          <t>'공리(axiom)' = 公理?</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>浮上</t>
+          <t>公理</t>
         </is>
       </c>
     </row>
@@ -7696,17 +7696,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>'부상(emerging)' = 浮上?</t>
+          <t>'수렴(convergence)' = 受斂?</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>浮上</t>
+          <t>收斂</t>
         </is>
       </c>
     </row>
@@ -7716,17 +7716,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>'부상(emerging)' = 負上?</t>
+          <t>'수렴(convergence)' = 收斂?</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>浮上</t>
+          <t>收斂</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>'부상(injury)' = 復傷?</t>
+          <t>'수렴(convergence)' = 搜斂?</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>負傷</t>
+          <t>收斂</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>'부상(injury)' = 浮傷?</t>
+          <t>'사유(only)' = 事惟?</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>負傷</t>
+          <t>思惟</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>'부상(injury)' = 負傷?</t>
+          <t>'사유(only)' = 思惟?</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>負傷</t>
+          <t>思惟</t>
         </is>
       </c>
     </row>
@@ -7796,17 +7796,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>'소원(wish)' = 所願?</t>
+          <t>'사유(only)' = 社惟?</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>所願</t>
+          <t>思惟</t>
         </is>
       </c>
     </row>
@@ -7816,17 +7816,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>'소원(wish)' = 訴願?</t>
+          <t>'고독(lonely)' = 孤獨?</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>所願</t>
+          <t>孤獨</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>'소원' = 所願?</t>
+          <t>'고독(lonely)' = 苦獨?</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>訴願</t>
+          <t>孤獨</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>'소원' = 訴願?</t>
+          <t>'비명(scream)' = 比鳴?</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>訴願</t>
+          <t>悲鳴</t>
         </is>
       </c>
     </row>
@@ -7876,17 +7876,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>'상식' = 象識?</t>
+          <t>'비명(scream)' = 悲鳴?</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>悲鳴</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>'상식' = 相識?</t>
+          <t>'비명(scream)' = 否鳴?</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>悲鳴</t>
         </is>
       </c>
     </row>
@@ -7916,17 +7916,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>'상식' = 常識?</t>
+          <t>'고민(depressed)' = 孤悶?</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>常識</t>
+          <t>苦悶</t>
         </is>
       </c>
     </row>
@@ -7936,17 +7936,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>'공리(axiom)' = 共理?</t>
+          <t>'고민(depressed)' = 苦悶?</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>公理</t>
+          <t>苦悶</t>
         </is>
       </c>
     </row>
@@ -7956,17 +7956,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>'공리(axiom)' = 公理?</t>
+          <t>'고통(pain)' = 孤痛?</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>公理</t>
+          <t>苦痛</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>'주선' = 周旋?</t>
+          <t>'고통(pain)' = 苦痛?</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>周旋</t>
+          <t>苦痛</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>'수렴(convergence)' = 受斂?</t>
+          <t>'대책(countermeasure)' = 大策?</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>收斂</t>
+          <t>對策</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>'수렴(convergence)' = 收斂?</t>
+          <t>'대책(countermeasure)' = 對策?</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>收斂</t>
+          <t>對策</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>'미달(unachieved)' = 未達?</t>
+          <t>'색출' = 索出?</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>未達</t>
+          <t>索出</t>
         </is>
       </c>
     </row>
@@ -8056,17 +8056,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>'사유(only)' = 事惟?</t>
+          <t>'색인(index)' = 索引?</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ㄴ</t>
+          <t>ㅇ</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>思惟</t>
+          <t>索引</t>
         </is>
       </c>
     </row>
@@ -8076,17 +8076,2177 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>'사유(only)' = 思惟?</t>
+          <t>'인상' = 人上?</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ㅇ</t>
+          <t>ㄴ</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>思惟</t>
+          <t>引上</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>'인상' = 引上?</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>引上</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>'수색(search)' = 受索?</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>'수색(search)' = 收索?</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>'수색(search)' = 搜索?</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>'여부' = 濾否?</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>'여부' = 勵否?</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>'여부' = 與否?</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>'부인(deny)' = 復認?</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>'부인(deny)' = 浮認?</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>'부인(deny)' = 負認?</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>'부인(deny)' = 否認?</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>'부인(deny)' = 不認?</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 復決?</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 浮決?</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 負決?</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 否決?</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>'부결(veto)' = 不決?</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>'부정(denial)' = 復定?</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>'부정(denial)' = 浮定?</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>'부정(denial)' = 負定?</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>'부정(denial)' = 否定?</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>'부정(denial)' = 不定?</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>'비색(not)' = 悲塞?</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>否塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>'비색(not)' = 比塞?</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>否塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>'비색(not)' = 否塞?</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>否塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>'비운' = 悲運?</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>'비운' = 比運?</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>'비운' = 否運?</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>'불만(dissatisfied)' = 不滿?</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>不滿</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>'부족(insufficient)' = 復足?</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>'부족(insufficient)' = 浮足?</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>'부족(insufficient)' = 負足?</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>'부족(insufficient)' = 否足?</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>'부족(insufficient)' = 不足?</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>'불안(anxiety)' = 不安?</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>不安</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>'부정(fraud)' = 復正?</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>'부정(fraud)' = 浮正?</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>'부정(fraud)' = 負正?</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>'부정(fraud)' = 否正?</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>'부정(fraud)' = 不正?</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 復定?</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 浮定?</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 負定?</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 否定?</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>'부정(indefinite)' = 不定?</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>'부정(unclean)' = 復淨?</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>'부정(unclean)' = 浮淨?</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>'부정(unclean)' = 負淨?</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>'부정(unclean)' = 否淨?</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>'부정(unclean)' = 不淨?</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>'부정(unfaithful)' = 復貞?</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>'부정(unfaithful)' = 浮貞?</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>'부정(unfaithful)' = 負貞?</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>'부정(unfaithful)' = 否貞?</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>'부정(unfaithful)' = 不貞?</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>'변경(change)' = 辨更?</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>變更</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>'변경(change)' = 變更?</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>變更</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>'경임' = 經任?</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>'경임' = 更任?</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>'갱생(rehabilitation)' = 更生?</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>更生</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>'갱신, 경신(renew)' = 更新?</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>'유세(lobby)' = 儒說?</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>'유세(lobby)' = 遺說?</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>'유세(lobby)' = 有說?</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>'유세(lobby)' = 遊說?</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>'유세(lobby)' = 誘說?</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 儒說?</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 遺說?</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 有說?</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 遊說?</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>'유세(seduce)' = 誘說?</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>'조세(tax)' = 造稅?</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>'조세(tax)' = 租稅?</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>'회무' = 回務?</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>會務</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>'회무' = 懷務?</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>會務</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>'회무' = 會務?</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>會務</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>'회칙(meeting)' = 回則?</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>會則</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>'회칙(meeting)' = 懷則?</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>會則</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>'회칙(meeting)' = 會則?</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>會則</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>'회합(meet)' = 回合?</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>會合</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>'회합(meet)' = 懷合?</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>會合</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>'회합(meet)' = 會合?</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>會合</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>'회동' = 回同?</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>會同</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>'회동' = 懷同?</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>會同</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>'회동' = 會同?</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>會同</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>'사회(society)' = 事會?</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>'사회(society)' = 思會?</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>'사회(society)' = 社會?</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>'회담(talks)' = 回談?</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>會談</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>'회담(talks)' = 懷談?</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>會談</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>'회담(talks)' = 會談?</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>會談</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>'기관(organ)' = 基關?</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>機關</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>'기관(organ)' = 機關?</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>機關</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>'위기(crisis)' = 萎機?</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>危機</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>'위기(crisis)' = 危機?</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>危機</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>'현역' = 現役?</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>現役</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>'의무(obligation)' = 義務?</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>'의무(obligation)' = 議務?</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>'강의(lecture)' = 強義?</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>'강의(lecture)' = 講義?</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>'의원(parliament)' = 義員?</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>議員</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>'의원(parliament)' = 議員?</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>議員</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>'회유(tenderness)' = 回柔?</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>'회유(tenderness)' = 會柔?</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>'회유(tenderness)' = 懷柔?</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 回抱?</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>懷抱</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 會抱?</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>ㄴ</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>懷抱</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>'회포(embrace)' = 懷抱?</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>ㅇ</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>懷抱</t>
         </is>
       </c>
     </row>

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>

--- a/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
+++ b/학습자료/O X 퀴즈/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E625"/>
+  <dimension ref="A1:F625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>질문</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -627,11 +662,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>기본</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
         </is>
       </c>
     </row>
@@ -659,6 +699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,6 +1029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +1059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,6 +1119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,6 +1149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,6 +1179,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,6 +1209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,6 +1239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,6 +1269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1159,6 +1299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,6 +1329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1209,6 +1359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1234,6 +1389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1259,6 +1419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1284,6 +1449,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1309,6 +1479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1334,6 +1509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1359,6 +1539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1384,6 +1569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1409,6 +1599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1434,6 +1629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1459,6 +1659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1484,6 +1689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1509,6 +1719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1534,6 +1749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1559,6 +1779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1584,6 +1809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1609,6 +1839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1634,6 +1869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1659,6 +1899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1684,6 +1929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1709,6 +1959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1734,6 +1989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1759,6 +2019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1784,6 +2049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1809,6 +2079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1834,6 +2109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1859,6 +2139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1884,6 +2169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1909,6 +2199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1934,6 +2229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1959,6 +2259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1984,6 +2289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2009,6 +2319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2034,6 +2349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2059,6 +2379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2084,6 +2409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2109,6 +2439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2134,6 +2469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2159,6 +2499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2184,6 +2529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2209,6 +2559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2234,6 +2589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2259,6 +2619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2284,6 +2649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2309,6 +2679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2334,6 +2709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2359,6 +2739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2384,6 +2769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2409,6 +2799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2434,6 +2829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2459,6 +2859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2484,6 +2889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2509,6 +2919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2534,6 +2949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2559,6 +2979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2584,6 +3009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2609,6 +3039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2634,6 +3069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2659,6 +3099,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2684,6 +3129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2709,6 +3159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2734,6 +3189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2759,6 +3219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2784,6 +3249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2809,6 +3279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2834,6 +3309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2859,6 +3339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2884,6 +3369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2909,6 +3399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2934,6 +3429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2959,6 +3459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2984,6 +3489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3009,6 +3519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3034,6 +3549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3059,6 +3579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3084,6 +3609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3109,6 +3639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3134,6 +3669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3159,6 +3699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3184,6 +3729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3209,6 +3759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3234,6 +3789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3259,6 +3819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3284,6 +3849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3309,6 +3879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3334,6 +3909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3359,6 +3939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3384,6 +3969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3409,6 +3999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3434,6 +4029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3459,6 +4059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3484,6 +4089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3509,6 +4119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3534,6 +4149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3559,6 +4179,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3584,6 +4209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3609,6 +4239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3634,6 +4269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3659,6 +4299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3684,6 +4329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3709,6 +4359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3734,6 +4389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3759,6 +4419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3777,11 +4442,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>기본</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
         </is>
       </c>
     </row>
@@ -3809,6 +4479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3834,6 +4509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3859,6 +4539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3884,6 +4569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3909,6 +4599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3934,6 +4629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3959,6 +4659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3984,6 +4689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4009,6 +4719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4034,6 +4749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4059,6 +4779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4084,6 +4809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4109,6 +4839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4134,6 +4869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4159,6 +4899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4184,6 +4929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4209,6 +4959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4234,6 +4989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4259,6 +5019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4284,6 +5049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4309,6 +5079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4334,6 +5109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4359,6 +5139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4384,6 +5169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4409,6 +5199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4434,6 +5229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4459,6 +5259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4484,6 +5289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4509,6 +5319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4534,6 +5349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4559,6 +5379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4584,6 +5409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4609,6 +5439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4634,6 +5469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4659,6 +5499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4684,6 +5529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4709,6 +5559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4734,6 +5589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4759,6 +5619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4784,6 +5649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4809,6 +5679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4834,6 +5709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4859,6 +5739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4884,6 +5769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4909,6 +5799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4934,6 +5829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4959,6 +5859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4984,6 +5889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5009,6 +5919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5034,6 +5949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5059,6 +5979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5084,6 +6009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5109,6 +6039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5134,6 +6069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5159,6 +6099,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5184,6 +6129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5209,6 +6159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5234,6 +6189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5259,6 +6219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5284,6 +6249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5309,6 +6279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5334,6 +6309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5359,6 +6339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5384,6 +6369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5409,6 +6399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5434,6 +6429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5459,6 +6459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5484,6 +6489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5509,6 +6519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5534,6 +6549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5559,6 +6579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5584,6 +6609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5609,6 +6639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5634,6 +6669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5659,6 +6699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5684,6 +6729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5709,6 +6759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5734,6 +6789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5759,6 +6819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5784,6 +6849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5809,6 +6879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5834,6 +6909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5859,6 +6939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5884,6 +6969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5909,6 +6999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5934,6 +7029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5959,6 +7059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5984,6 +7089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6009,6 +7119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6034,6 +7149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6059,6 +7179,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6084,6 +7209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6109,6 +7239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6134,6 +7269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6159,6 +7299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6184,6 +7329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6209,6 +7359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6234,6 +7389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6259,6 +7419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6284,6 +7449,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6309,6 +7479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6334,6 +7509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6359,6 +7539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6384,6 +7569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6409,6 +7599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6434,6 +7629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6459,6 +7659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6484,6 +7689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6509,6 +7719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6534,6 +7749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6559,6 +7779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6584,6 +7809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6609,6 +7839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6634,6 +7869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6659,6 +7899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6684,6 +7929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6709,6 +7959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6734,6 +7989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6759,6 +8019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6784,6 +8049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6809,6 +8079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6834,6 +8109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6859,6 +8139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6884,6 +8169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6909,6 +8199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6934,6 +8229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6959,6 +8259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6984,6 +8289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7009,6 +8319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7034,6 +8349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7059,6 +8379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7084,6 +8409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7109,6 +8439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7134,6 +8469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7159,6 +8499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7184,6 +8529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7209,6 +8559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7234,6 +8589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7259,6 +8619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7284,6 +8649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7309,6 +8679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7334,6 +8709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7359,6 +8739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7384,6 +8769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7409,6 +8799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7434,6 +8829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7459,6 +8859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7484,6 +8889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7509,6 +8919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7534,6 +8949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7559,6 +8979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7584,6 +9009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7609,6 +9039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7634,6 +9069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7659,6 +9099,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7684,6 +9129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7709,6 +9159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7734,6 +9189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7759,6 +9219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7784,6 +9249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7809,6 +9279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7834,6 +9309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7859,6 +9339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7884,6 +9369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7909,6 +9399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7934,6 +9429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7959,6 +9459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7984,6 +9489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8009,6 +9519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8034,6 +9549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8059,6 +9579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8084,6 +9609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8109,6 +9639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8134,6 +9669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8159,6 +9699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8184,6 +9729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8209,6 +9759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8234,6 +9789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8259,6 +9819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8284,6 +9849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8309,6 +9879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8334,6 +9909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8359,6 +9939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8384,6 +9969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8409,6 +9999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8434,6 +10029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8459,6 +10059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8484,6 +10089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8509,6 +10119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8534,6 +10149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8552,11 +10172,16 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
           <t>기본</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
         </is>
       </c>
     </row>
@@ -8584,6 +10209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8609,6 +10239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8634,6 +10269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8659,6 +10299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8684,6 +10329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8709,6 +10359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8734,6 +10389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8759,6 +10419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8784,6 +10449,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8809,6 +10479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -8834,6 +10509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8859,6 +10539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8884,6 +10569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8909,6 +10599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8934,6 +10629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8959,6 +10659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8984,6 +10689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9009,6 +10719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9034,6 +10749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9059,6 +10779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9084,6 +10809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9109,6 +10839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9134,6 +10869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9159,6 +10899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9184,6 +10929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9209,6 +10959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9234,6 +10989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9259,6 +11019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9284,6 +11049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9309,6 +11079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9334,6 +11109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9359,6 +11139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9384,6 +11169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9409,6 +11199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9434,6 +11229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9459,6 +11259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9484,6 +11289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9509,6 +11319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9534,6 +11349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9559,6 +11379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9584,6 +11409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9609,6 +11439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -9634,6 +11469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -9659,6 +11499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -9684,6 +11529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -9709,6 +11559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -9734,6 +11589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9759,6 +11619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9784,6 +11649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9809,6 +11679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9834,6 +11709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9859,6 +11739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9884,6 +11769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9909,6 +11799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9934,6 +11829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9959,6 +11859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9984,6 +11889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10009,6 +11919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10034,6 +11949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10059,6 +11979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10084,6 +12009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10109,6 +12039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10134,6 +12069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10159,6 +12099,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10184,6 +12129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10209,6 +12159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10234,6 +12189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10259,6 +12219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10284,6 +12249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10309,6 +12279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10334,6 +12309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10359,6 +12339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10384,6 +12369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10409,6 +12399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10434,6 +12429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10459,6 +12459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10484,6 +12489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10509,6 +12519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10534,6 +12549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10559,6 +12579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -10584,6 +12609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -10609,6 +12639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -10634,6 +12669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -10659,6 +12699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -10684,6 +12729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -10709,6 +12759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -10734,6 +12789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -10759,6 +12819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -10784,6 +12849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -10809,6 +12879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -10834,6 +12909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -10859,6 +12939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -10884,6 +12969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -10909,6 +12999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -10934,6 +13029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -10959,6 +13059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -10984,6 +13089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11009,6 +13119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11034,6 +13149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11059,6 +13179,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11084,6 +13209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11109,6 +13239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11134,6 +13269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11159,6 +13299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11184,6 +13329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11209,6 +13359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11234,6 +13389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11259,6 +13419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11284,6 +13449,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11309,6 +13479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11334,6 +13509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11359,6 +13539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11384,6 +13569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11409,6 +13599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11434,6 +13629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11459,6 +13659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11484,6 +13689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11509,6 +13719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11534,6 +13749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -11559,6 +13779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -11584,6 +13809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -11609,6 +13839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -11634,6 +13869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -11659,6 +13899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -11684,6 +13929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -11709,6 +13959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -11734,6 +13989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -11759,6 +14019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -11784,6 +14049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -11809,6 +14079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -11834,6 +14109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -11859,6 +14139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -11884,6 +14169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -11909,6 +14199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -11934,6 +14229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -11959,6 +14259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -11984,6 +14289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12009,6 +14319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12034,6 +14349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12059,6 +14379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12084,6 +14409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12109,6 +14439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12134,6 +14469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12159,6 +14499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12184,6 +14529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12209,6 +14559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12234,6 +14589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12259,6 +14619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12284,6 +14649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12309,6 +14679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12334,6 +14709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12359,6 +14739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12384,6 +14769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12409,6 +14799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12434,6 +14829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -12459,6 +14859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -12484,6 +14889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -12509,6 +14919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -12534,6 +14949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -12559,6 +14979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -12584,6 +15009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -12609,6 +15039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -12634,6 +15069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -12652,11 +15092,16 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
           <t>기본</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
         </is>
       </c>
     </row>
@@ -12684,6 +15129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -12709,6 +15159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -12734,6 +15189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -12759,6 +15219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -12784,6 +15249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -12809,6 +15279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -12834,6 +15309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -12859,6 +15339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -12884,6 +15369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -12909,6 +15399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -12934,6 +15429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -12959,6 +15459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -12984,6 +15489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -13009,6 +15519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -13034,6 +15549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -13059,6 +15579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -13084,6 +15609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -13109,6 +15639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -13134,6 +15669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -13159,6 +15699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -13184,6 +15729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -13209,6 +15759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -13234,6 +15789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -13259,6 +15819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -13284,6 +15849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -13309,6 +15879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -13334,6 +15909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -13359,6 +15939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -13384,6 +15969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -13409,6 +15999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -13434,6 +16029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -13459,6 +16059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -13484,6 +16089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -13509,6 +16119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -13534,6 +16149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -13559,6 +16179,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -13584,6 +16209,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -13609,6 +16239,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -13634,6 +16269,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -13659,6 +16299,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -13684,6 +16329,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -13709,6 +16359,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -13734,6 +16389,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -13759,6 +16419,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -13784,6 +16449,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -13809,6 +16479,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -13834,6 +16509,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -13859,6 +16539,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -13884,6 +16569,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -13909,6 +16599,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -13934,6 +16629,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -13959,6 +16659,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -13984,6 +16689,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -14009,6 +16719,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -14034,6 +16749,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -14059,6 +16779,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -14084,6 +16809,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -14109,6 +16839,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -14134,6 +16869,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -14159,6 +16899,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -14184,6 +16929,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -14209,6 +16959,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -14234,6 +16989,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -14259,6 +17019,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -14284,6 +17049,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -14309,6 +17079,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -14334,6 +17109,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -14359,6 +17139,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -14384,6 +17169,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -14409,6 +17199,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -14434,6 +17229,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -14459,6 +17259,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -14484,6 +17289,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -14509,6 +17319,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -14534,6 +17349,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -14559,6 +17379,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -14584,6 +17409,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -14609,6 +17439,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -14634,6 +17469,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -14659,6 +17499,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -14684,6 +17529,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -14709,6 +17559,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -14734,6 +17589,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -14759,6 +17619,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -14784,6 +17649,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -14809,6 +17679,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -14834,6 +17709,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -14859,6 +17739,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -14884,6 +17769,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -14909,6 +17799,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -14934,6 +17829,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -14959,6 +17859,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -14984,6 +17889,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -15009,6 +17919,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -15034,6 +17949,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -15059,6 +17979,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -15084,6 +18009,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -15109,6 +18039,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -15134,6 +18069,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -15159,6 +18099,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -15184,6 +18129,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -15209,6 +18159,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -15234,6 +18189,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -15259,6 +18219,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -15284,6 +18249,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -15309,6 +18279,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -15334,6 +18309,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -15359,6 +18339,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -15384,6 +18369,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -15409,6 +18399,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -15434,6 +18429,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -15459,6 +18459,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -15484,6 +18489,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -15509,6 +18519,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -15534,6 +18549,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -15559,6 +18579,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -15584,6 +18609,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -15609,6 +18639,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -15634,6 +18669,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -15659,6 +18699,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -15684,6 +18729,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -15709,6 +18759,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -15734,6 +18789,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -15759,6 +18819,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -15784,6 +18849,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -15809,6 +18879,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -15834,6 +18909,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -15859,6 +18939,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -15884,6 +18969,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -15909,6 +18999,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -15934,6 +19029,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -15959,6 +19059,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -15984,6 +19089,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -16009,6 +19119,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -16034,6 +19149,11 @@
           <t>기본</t>
         </is>
       </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -16057,6 +19177,11 @@
       <c r="E625" t="inlineStr">
         <is>
           <t>기본</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
         </is>
       </c>
     </row>
